--- a/bookStoreApi/example_books.xlsx
+++ b/bookStoreApi/example_books.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4412" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="1016">
   <si>
     <t>Pelecanos, George</t>
   </si>
@@ -2991,1200 +2991,6 @@
     <t>Publication of the Fdourth North European Symposium for Archaeological Textiles. 25 scholarly articles, ills. 27 Articles in English or German. Very good. In principle, books are cheaper in the shop.</t>
   </si>
   <si>
-    <t>Barrett, Clotilde</t>
-  </si>
-  <si>
-    <t>Shadow Weave and Corkscrew Weave (The Weaver's Journal Monograph 3)</t>
-  </si>
-  <si>
-    <t>Weaver's Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large stapled paperback, very good. </t>
-  </si>
-  <si>
-    <t>Barrett, Clotilde - Smith, Eunice</t>
-  </si>
-  <si>
-    <t>Double two-tie unit weaves</t>
-  </si>
-  <si>
-    <t>Large paperback. Light rubbing to covers.Lower corners of pages show light creasing.  In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Landis, Lucille</t>
-  </si>
-  <si>
-    <t>Twills and Twill Derivatives - Design your own four to eight harnesses</t>
-  </si>
-  <si>
-    <t>Own Publication</t>
-  </si>
-  <si>
-    <t>Large stapled paperback. 70 figures and around 150 photographs of patterns. Edge wear, very good. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Speiser, Noemi</t>
-  </si>
-  <si>
-    <t>The manual of braiding</t>
-  </si>
-  <si>
-    <t>Large paperback. Light wear to corners. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Dyer, Anne</t>
-  </si>
-  <si>
-    <t>New ways with table weaving or there's a snag in it somewhere</t>
-  </si>
-  <si>
-    <t>Westhope College</t>
-  </si>
-  <si>
-    <t>Large paperback. Very good. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Kinzel, Marianne</t>
-  </si>
-  <si>
-    <t>First book of modern lace knitting</t>
-  </si>
-  <si>
-    <t>Dover</t>
-  </si>
-  <si>
-    <t>Light wear, spine negligibly sunned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Second book of modern lace knitting</t>
-  </si>
-  <si>
-    <t>Fuller, Elaine</t>
-  </si>
-  <si>
-    <t>Lucet braiding - Variations on a Renaissance Cord</t>
-  </si>
-  <si>
-    <t>Lacis</t>
-  </si>
-  <si>
-    <t>Spiralled large paperback. Very good. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Schlein, Alice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network drafting: An introduction </t>
-  </si>
-  <si>
-    <t>Bridgewater Press</t>
-  </si>
-  <si>
-    <t>Spiralled large paperback. Includes 26 templates to copy, cut and paste for your own drafts. 92+33 pages. Light wear. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Baran, Paul A. - Sweezy, Paul M.</t>
-  </si>
-  <si>
-    <t>Monopoly capital - An essay on the American Economic and social order</t>
-  </si>
-  <si>
-    <t>Mild wear and creasing to covers. Also a small tear to front cover. Page edges tanned, rare reader marks. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political economy, US, </t>
-  </si>
-  <si>
-    <t>03.05.2024</t>
-  </si>
-  <si>
-    <t>Deutscher, Isaac</t>
-  </si>
-  <si>
-    <t>The prophet armed - Trotsky 1879 - 1921</t>
-  </si>
-  <si>
-    <t>Light wear and reading crease to spine. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Russia, history, Socialism</t>
-  </si>
-  <si>
-    <t>Benassy, Jean-Pascal</t>
-  </si>
-  <si>
-    <t>The macroeconomics of imperfect competition and nonclearing markets - A dynamic general equilibrium approach</t>
-  </si>
-  <si>
-    <t>MIT press</t>
-  </si>
-  <si>
-    <t>Precious, Mark</t>
-  </si>
-  <si>
-    <t>Rational expectations - Non-market clearing and investment theory</t>
-  </si>
-  <si>
-    <t>Light wear to covers, a few reader marks to text. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Economy, macroeeconomics</t>
-  </si>
-  <si>
-    <t>Hahn, Frank</t>
-  </si>
-  <si>
-    <t>Money and inflation</t>
-  </si>
-  <si>
-    <t>Blackwell</t>
-  </si>
-  <si>
-    <t>Hardcover, first edition from 1982. Jacket show very light wear. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Economy, monetarism, inflation</t>
-  </si>
-  <si>
-    <t>Amin, Samir</t>
-  </si>
-  <si>
-    <t>Accumulation on a world scale - A critique of the Theory of Underdevelopment</t>
-  </si>
-  <si>
-    <t>Monthly Review Press</t>
-  </si>
-  <si>
-    <t>Light wear and creasing to covers, spine show light reading crease. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Political economy, underdevelopment</t>
-  </si>
-  <si>
-    <t>Eagleton, Terry</t>
-  </si>
-  <si>
-    <t>How to read a poem</t>
-  </si>
-  <si>
-    <t>Large paperback, light wear, negligible silverfish damage to fore-edge anf first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Poetry, literary criticism</t>
-  </si>
-  <si>
-    <t>Nove, Alec</t>
-  </si>
-  <si>
-    <t>The economics of feasible socialism</t>
-  </si>
-  <si>
-    <t>George Allen &amp; Unwin</t>
-  </si>
-  <si>
-    <t>Large paperback. Light wear, reader marks to first 45 pages. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Political economy, socialism</t>
-  </si>
-  <si>
-    <t>Vega-Redondo, Fernando</t>
-  </si>
-  <si>
-    <t>Evolution, games and economic behaviour</t>
-  </si>
-  <si>
-    <t>Large paperback. Light wear. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Game theory, economics</t>
-  </si>
-  <si>
-    <t>State and market - The political economy of Turkey in comparative perspective</t>
-  </si>
-  <si>
-    <t>Covers mildly worn, In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Turkey, history, economy</t>
-  </si>
-  <si>
-    <t>Houghtaling, Adam Brent</t>
-  </si>
-  <si>
-    <t>This will end in tears - The miserabilist guide to music</t>
-  </si>
-  <si>
-    <t>It Books</t>
-  </si>
-  <si>
-    <t>Music,</t>
-  </si>
-  <si>
-    <t>Elster, Jon - Moene, Karl Ove (ed.)</t>
-  </si>
-  <si>
-    <t>Alternatives to capitalism</t>
-  </si>
-  <si>
-    <t>Cambridge University Press</t>
-  </si>
-  <si>
-    <t>Light wear to covers. One sentence is underlined in pencil, and it is a rather important sentence. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Socialism, theory, political economy</t>
-  </si>
-  <si>
-    <t>Frank, Andre Gunder</t>
-  </si>
-  <si>
-    <t>Crisis: In the world economy</t>
-  </si>
-  <si>
-    <t>Holmes Meier</t>
-  </si>
-  <si>
-    <t>Political economy, world politics</t>
-  </si>
-  <si>
-    <t>Chirot, Daniel</t>
-  </si>
-  <si>
-    <t>Social change in the twentieth century</t>
-  </si>
-  <si>
-    <t>Harcourt Brace Jovanovich</t>
-  </si>
-  <si>
-    <t>Light wear, silverfish damage (not actually damage, they eat the top layer of pages and or punch holes on them, mostly like In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Artes - An International Reader of Literature Art and Music - 1996</t>
-  </si>
-  <si>
-    <t>Mercury House / Natur Okultur</t>
-  </si>
-  <si>
-    <t>Periodical</t>
-  </si>
-  <si>
-    <t>Covers rubbed and lightly soiled, with a small tear to front cover tail, and a puncture to top first page. Internally good. No CD. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Periodical, literature, photography</t>
-  </si>
-  <si>
-    <t>giriş</t>
-  </si>
-  <si>
-    <t>Doeland, Lisa</t>
-  </si>
-  <si>
-    <t>Apocalypsofie - Over recycling, groene groei en andere gevaarlijke fantasieen</t>
-  </si>
-  <si>
-    <t>Ten Have</t>
-  </si>
-  <si>
-    <t>Philosophy, life</t>
-  </si>
-  <si>
-    <t>Dubrow, Jehanne</t>
-  </si>
-  <si>
-    <t>Taste - A book of small bites</t>
-  </si>
-  <si>
-    <t>Camus, Albert</t>
-  </si>
-  <si>
-    <t>De mythe van Sisyphus - Aan essay over het absurde</t>
-  </si>
-  <si>
-    <t>Ijzer</t>
-  </si>
-  <si>
-    <t>Philosophy, absurde, existentialism</t>
-  </si>
-  <si>
-    <t>Harris, Nigel</t>
-  </si>
-  <si>
-    <t>The end of the third world - Newly industrializing countries and the decline of an ideology</t>
-  </si>
-  <si>
-    <t>Cover edges are eaten. Spine creased. A few reader marks to text.  In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political economy, third world, </t>
-  </si>
-  <si>
-    <t>Wistrich, Robert</t>
-  </si>
-  <si>
-    <t>Trotsky, Fate of a Revolutionary</t>
-  </si>
-  <si>
-    <t>Robson Books</t>
-  </si>
-  <si>
-    <t>Spine sunned, name to title page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Biography, Russian history, Socialism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brugmans, H. </t>
-  </si>
-  <si>
-    <t>Oud-Nederlandsche Steden: Het Staatkundig en Maatschappelijk Leven der Nederlandsche Steden</t>
-  </si>
-  <si>
-    <t>A. W. Sijthoff</t>
-  </si>
-  <si>
-    <t>Half leather boards show light tubbing. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>History, Netherlands</t>
-  </si>
-  <si>
-    <t>De Steunbeer</t>
-  </si>
-  <si>
-    <t>DEPO</t>
-  </si>
-  <si>
-    <t>Hilton, James</t>
-  </si>
-  <si>
-    <t>Lost horizon - The strange secret of Shangri-La</t>
-  </si>
-  <si>
-    <t>Pan</t>
-  </si>
-  <si>
-    <t>Spine is little bit tired, shows creases. Blind stamp to first page. Page edges lightly tanned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>04.05.2024</t>
-  </si>
-  <si>
-    <t>Evans, Nicholas</t>
-  </si>
-  <si>
-    <t>The horse whisperer</t>
-  </si>
-  <si>
-    <t>The divide</t>
-  </si>
-  <si>
-    <t>Time Warner</t>
-  </si>
-  <si>
-    <t>Faulks, Sebastian</t>
-  </si>
-  <si>
-    <t>Human traces</t>
-  </si>
-  <si>
-    <t>James, Henry</t>
-  </si>
-  <si>
-    <t>The tragic muse</t>
-  </si>
-  <si>
-    <t>Front cover, subsequent pages show cockling and faint trace of liquid stain. Peerfectly readable. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>The Princess Casamassima</t>
-  </si>
-  <si>
-    <t>Light wear and reading crease. Name to first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>The awkward age</t>
-  </si>
-  <si>
-    <t>The ambassadors</t>
-  </si>
-  <si>
-    <t>The golden bowl</t>
-  </si>
-  <si>
-    <t>J. M. Dent</t>
-  </si>
-  <si>
-    <t>Light wear and reading crease. A minor bump to spine top. Name to first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Hoeg, Peter</t>
-  </si>
-  <si>
-    <t>Borderlines</t>
-  </si>
-  <si>
-    <t>Literature - Danish</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novel, social Darwinism, </t>
-  </si>
-  <si>
-    <t>16..5</t>
-  </si>
-  <si>
-    <t>The hermit of 69th street</t>
-  </si>
-  <si>
-    <t>Zebra Fiction</t>
-  </si>
-  <si>
-    <t>Light wear, sunning and creasing to spine. Name to first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Passion play</t>
-  </si>
-  <si>
-    <t>Covers milldly worn, spine shows light creasing. Page edges tanned. Name to first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farrell, James T. </t>
-  </si>
-  <si>
-    <t>Studs Lonigan - Trilogy</t>
-  </si>
-  <si>
-    <t>Signet</t>
-  </si>
-  <si>
-    <t>Covers lightly rubbed, creasing to spine. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Novel, American social novel, Chicago, prohibition</t>
-  </si>
-  <si>
-    <t>A Bloodsmoor Romance</t>
-  </si>
-  <si>
-    <t>Warner</t>
-  </si>
-  <si>
-    <t>Spine shows mild creasing and tears at tail. Page edges tanned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Wonderland</t>
-  </si>
-  <si>
-    <t>Marya A Life</t>
-  </si>
-  <si>
-    <t>Spine shows mild creasing, light wear overall, name to title page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>What I lived for</t>
-  </si>
-  <si>
-    <t>Spine creased. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Hugo, Victor</t>
-  </si>
-  <si>
-    <t>Le dernier jour d'un condamné - précédé de Bug-Jargal</t>
-  </si>
-  <si>
-    <t>Light wear, and creasing, page edges tanned, name to first page, transparent tape to spine for protection. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Novel, Haitian Revolution</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>Simon, Claude</t>
-  </si>
-  <si>
-    <t>Histoire</t>
-  </si>
-  <si>
-    <t>Giono, Jean</t>
-  </si>
-  <si>
-    <t>Colline</t>
-  </si>
-  <si>
-    <t>Light wear, book-block edges tanned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Balzac,</t>
-  </si>
-  <si>
-    <t>Le recherche de l'Absolu - La messe de l'athée</t>
-  </si>
-  <si>
-    <t>Light wear, page edges lightly tanned. Name to first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Splendeurs et miseres des courtisanes</t>
-  </si>
-  <si>
-    <t>Prévost, Abbé</t>
-  </si>
-  <si>
-    <t>Histoire d'une Grecque moderne</t>
-  </si>
-  <si>
-    <t>Editions 10/18</t>
-  </si>
-  <si>
-    <t>Light wear, reading crease, name to first page, transparent tape to spine for protection. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Rousseau, Jean-Jacques</t>
-  </si>
-  <si>
-    <t>émile ou de l'éducation</t>
-  </si>
-  <si>
-    <t>Garnier</t>
-  </si>
-  <si>
-    <t>Paperback with dustjacket. Illustrated edition. Light rubbing to tail. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Philosophy, education,</t>
-  </si>
-  <si>
-    <t>Manushina, Tatiana Nikolaevna</t>
-  </si>
-  <si>
-    <t>Early Russian Embroidery in the Zagorsk Museum Collection</t>
-  </si>
-  <si>
-    <t>Sovetskaya Rossia Publishers</t>
-  </si>
-  <si>
-    <t>Half faux-leather in slipcase. Very light wear. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Textiles, embroidery, religious, Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernecker, Walther L. - Esser, Torsten - Kraus, Peter A. </t>
-  </si>
-  <si>
-    <t>Eine kleine Geschichte Kataloniens</t>
-  </si>
-  <si>
-    <t>History, Spain, Catalonians</t>
-  </si>
-  <si>
-    <t>Dörrie, Doris</t>
-  </si>
-  <si>
-    <t>Die welt auf dem teller - Inspirationen aus der Küche</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Dark blue cloth in dustjacket. Illustrated by Zenji Funabashi. Almost no wear. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Food, life</t>
-  </si>
-  <si>
-    <t>Capriolo, Paola</t>
-  </si>
-  <si>
-    <t>La grande Eulalia</t>
-  </si>
-  <si>
-    <t>italiaa</t>
-  </si>
-  <si>
-    <t>Feltrinelli</t>
-  </si>
-  <si>
-    <t>Light wear and creasing. Hinges are cracked but nothing serious, Pages tanned, a few reader marks in pencil. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Die welt der schönen bilder</t>
-  </si>
-  <si>
-    <t>Rowohlt</t>
-  </si>
-  <si>
-    <t>Hardcover in dustjacket. Very light rubbing to tail. Also a tiny prick to front side. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Büch, Boudewijn</t>
-  </si>
-  <si>
-    <t>Goethe en geen einde</t>
-  </si>
-  <si>
-    <t>Very light rubbing to cover edges. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Goethe, essay, literature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hackwith, A. J. </t>
-  </si>
-  <si>
-    <t>The library of the unwritten</t>
-  </si>
-  <si>
-    <t>Titan Books</t>
-  </si>
-  <si>
-    <t>Light wear and reading crease. Spine a little bowed. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Novel, library, fantasy</t>
-  </si>
-  <si>
-    <t>05.05.2024</t>
-  </si>
-  <si>
-    <t>Irving, John</t>
-  </si>
-  <si>
-    <t>Trying to save Piggy Sneed</t>
-  </si>
-  <si>
-    <t>Very light wear. Small hardcover. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Memoir, short story</t>
-  </si>
-  <si>
-    <t>Collins, Wilkie</t>
-  </si>
-  <si>
-    <t>The moonstone</t>
-  </si>
-  <si>
-    <t>Literature - Crime</t>
-  </si>
-  <si>
-    <t>Light wear, reading crease, page edges lightly tanned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Novel, crime</t>
-  </si>
-  <si>
-    <t>Kingsolver, Barbara</t>
-  </si>
-  <si>
-    <t>The poisonwood bible</t>
-  </si>
-  <si>
-    <t>Novel, Africa, postcolonialism, Congo</t>
-  </si>
-  <si>
-    <t>Surfacing</t>
-  </si>
-  <si>
-    <t>Light wear to covers, spine slightly creased and sunned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Mirrlees, Hope</t>
-  </si>
-  <si>
-    <t>Lud in the mist</t>
-  </si>
-  <si>
-    <t>Light wear In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jemisin, N. K. </t>
-  </si>
-  <si>
-    <t>The fifth season</t>
-  </si>
-  <si>
-    <t>Orbit</t>
-  </si>
-  <si>
-    <t>Light wear, skewing to spine, tail of back cover also show light laminate damage. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Eggers, Dave</t>
-  </si>
-  <si>
-    <t>The circle</t>
-  </si>
-  <si>
-    <t>Hamish Hamilton</t>
-  </si>
-  <si>
-    <t>Large paperback, covers mildly worn. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Napolitano, Ann</t>
-  </si>
-  <si>
-    <t>Hello beautiful</t>
-  </si>
-  <si>
-    <t>The Dial Press</t>
-  </si>
-  <si>
-    <t>Large paperback, light rubbing to cover edges. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Akefi, Tahmina</t>
-  </si>
-  <si>
-    <t>Mijn grote liefde, Een leve met Peter R. De Vries</t>
-  </si>
-  <si>
-    <t>Journalism</t>
-  </si>
-  <si>
-    <t>Light wear to covers, and readinng crease to spine. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Biography, journalism, Dutch history</t>
-  </si>
-  <si>
-    <t>Dahl, Roald</t>
-  </si>
-  <si>
-    <t>Alle verhalen</t>
-  </si>
-  <si>
-    <t>Literature - Norwegian</t>
-  </si>
-  <si>
-    <t>Large hardcover, very light wear. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Short story, omnibus</t>
-  </si>
-  <si>
-    <t>Baggini, Julian</t>
-  </si>
-  <si>
-    <t>How to think like a philosopher - Essential principles for clearer thinking</t>
-  </si>
-  <si>
-    <t>Granta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philosophy, </t>
-  </si>
-  <si>
-    <t>Fideler, David</t>
-  </si>
-  <si>
-    <t>Breakfast with Seneca - A stoic guide to the art of living</t>
-  </si>
-  <si>
-    <t>Lichtenstein, Rachel</t>
-  </si>
-  <si>
-    <t>Estuary, Out from London to the Sea</t>
-  </si>
-  <si>
-    <t>Travel, Thames, UK, water</t>
-  </si>
-  <si>
-    <t>Penn, Thomas</t>
-  </si>
-  <si>
-    <t>Winter king - The dawn of Tudor England</t>
-  </si>
-  <si>
-    <t>History - United Kingdom</t>
-  </si>
-  <si>
-    <t>Light wear, spine lightly sunned and creased. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>History, England, Tudor</t>
-  </si>
-  <si>
-    <t>Boren, Henry C.</t>
-  </si>
-  <si>
-    <t>The Roman Republic</t>
-  </si>
-  <si>
-    <t>Anvil</t>
-  </si>
-  <si>
-    <t>History - Roman Empire</t>
-  </si>
-  <si>
-    <t>Light wear to covers, corners lightly curled. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Castaneda, Carlos</t>
-  </si>
-  <si>
-    <t>A separate reality - Further conversations witth Don Juan</t>
-  </si>
-  <si>
-    <t>Simon And Schuster</t>
-  </si>
-  <si>
-    <t>Light wear, folding crease to back cover, minor soiling to tail. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Belief, Anthropology, American indians</t>
-  </si>
-  <si>
-    <t>Journey to Ixtlan - The Lessons of Don Juan</t>
-  </si>
-  <si>
-    <t>Light wear and creasing, page edges tanned. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Tales of power</t>
-  </si>
-  <si>
-    <t>Sumpter, David</t>
-  </si>
-  <si>
-    <t>Soccermatics - Mathematical adventures in the beautiful game</t>
-  </si>
-  <si>
-    <t>Football, mathematics</t>
-  </si>
-  <si>
-    <t>Groskop, Viv</t>
-  </si>
-  <si>
-    <t>Au revoir, Tristesse</t>
-  </si>
-  <si>
-    <t>Abrams Press</t>
-  </si>
-  <si>
-    <t>Literature felan</t>
-  </si>
-  <si>
-    <t>Literature, French, personal comments on whatever there is</t>
-  </si>
-  <si>
-    <t>Bourdain, Anthony</t>
-  </si>
-  <si>
-    <t>Kitchen Confidential</t>
-  </si>
-  <si>
-    <t>Light edgewear to jacket and boards. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Food, memoir, </t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>Poirier, Agnes</t>
-  </si>
-  <si>
-    <t>Left Bank - Art, Passion and the Rebirth of Paris 1940-1950</t>
-  </si>
-  <si>
-    <t>Light wear and creasing to jacket, book slightly skewed. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Literature, philosophy, history, Paris</t>
-  </si>
-  <si>
-    <t>Cyrulnik, Boris</t>
-  </si>
-  <si>
-    <t>Les vilains Petits Canards</t>
-  </si>
-  <si>
-    <t>Light wear, a few spots, name stamp and number to first page. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Dieudonne, Adeline</t>
-  </si>
-  <si>
-    <t>La Vraie Vie</t>
-  </si>
-  <si>
-    <t>Daniken, Erich von</t>
-  </si>
-  <si>
-    <t>In search of ancient gods</t>
-  </si>
-  <si>
-    <t>Light wear and reading crease. Ills. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief, </t>
-  </si>
-  <si>
-    <t>Krasznahorkai, Laszlo</t>
-  </si>
-  <si>
-    <t>War and war</t>
-  </si>
-  <si>
-    <t>Tuskar Rock Press</t>
-  </si>
-  <si>
-    <t>Translation by George Szirtes. Light wear to covers. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Ponce, Juan Garcia</t>
-  </si>
-  <si>
-    <t>Encounters</t>
-  </si>
-  <si>
-    <t>Eridanos</t>
-  </si>
-  <si>
-    <t>Literature - Mexican</t>
-  </si>
-  <si>
-    <t>Large paperback with dustjacket. Trannslated by Helen Lane, introduction by Octavio Paz. Light wear, A few spots to edges. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Zylowska, Lidia</t>
-  </si>
-  <si>
-    <t>The mindfulness prescription for adult ADHD</t>
-  </si>
-  <si>
-    <t>Trumpeter</t>
-  </si>
-  <si>
-    <t>Very light wear. No CD.  In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Psychology, ADHD</t>
-  </si>
-  <si>
-    <t>Lahiri, Jhumpa</t>
-  </si>
-  <si>
-    <t>Dove mi trovo</t>
-  </si>
-  <si>
-    <t>Guanda</t>
-  </si>
-  <si>
-    <t>Literature - Indian</t>
-  </si>
-  <si>
-    <t>Paperback in dustjacket. Jacket shows light rubbing. Iternally good. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Iommi, Sara</t>
-  </si>
-  <si>
-    <t>Epifania del vedere negato - Il mondo agropastorale nel documentario corto italiano 1939-1969</t>
-  </si>
-  <si>
-    <t>Diabasis</t>
-  </si>
-  <si>
-    <t>TV - Cinema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Very light wear. </t>
-  </si>
-  <si>
-    <t>Italy, cinema, photography, 20th century</t>
-  </si>
-  <si>
-    <t>Rodoreda, Merce</t>
-  </si>
-  <si>
-    <t>Mi cristina y otros cuentos</t>
-  </si>
-  <si>
-    <t>spanish</t>
-  </si>
-  <si>
-    <t>Alianza Tres</t>
-  </si>
-  <si>
-    <t>Literature - Catalan</t>
-  </si>
-  <si>
-    <t>short story</t>
-  </si>
-  <si>
-    <t>Carco, Francis</t>
-  </si>
-  <si>
-    <t>Maurice Utrillo - Legende und wirklichheit</t>
-  </si>
-  <si>
-    <t>Art - French</t>
-  </si>
-  <si>
-    <t>Jacket shows wear and tear. Negligible foxing to board edges. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Art, biography, 20th</t>
-  </si>
-  <si>
-    <t>Keukenconfessies - Berichten uit de culinnaire onderwereld</t>
-  </si>
-  <si>
-    <t>De Boekerij</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oosterling, H. A. F. - Prins, A. W. </t>
-  </si>
-  <si>
-    <t>Rotterdamse filosofische studies VIII - La Chair: Het vlees in filosofie en kunst</t>
-  </si>
-  <si>
-    <t>Erasmus Universiteit</t>
-  </si>
-  <si>
-    <t>Large paperback. 16 color and b/w images at the end Water stain to top edge, penetrating a little bit to text block, visible on a few pages, then only the faint feeling. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Philosophy, body, art</t>
-  </si>
-  <si>
-    <t>Hill, John - McLoone, Martin (eds.)</t>
-  </si>
-  <si>
-    <t>Big picture small screen - The relations between film and television</t>
-  </si>
-  <si>
-    <t>John Libey Media/University of Luton</t>
-  </si>
-  <si>
-    <t>18 scholarly essays on the relationship between two areas, predominantly in the confines of the United Kingdom. Light wear to covers. Tail shows bluish soiling. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Media, TV, cinema,</t>
-  </si>
-  <si>
-    <t>Welling, James - Deutsche, Rosalyn (text)</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Palais des Beaux-Arts; Toronto: Art Gallery of York University</t>
-  </si>
-  <si>
-    <t>Large paperback in dustjacket. Jacket shows light rubbing at edges and corners, otherwise good. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Photography, color filter, digital manipulation</t>
-  </si>
-  <si>
-    <t>Hisroshige, Ando - Seckel, Dietrich (ed.)</t>
-  </si>
-  <si>
-    <t>Tokaido - Landschaften</t>
-  </si>
-  <si>
-    <t>Woldemar Klein</t>
-  </si>
-  <si>
-    <t>Art - Japanese</t>
-  </si>
-  <si>
-    <t>16 color plates. Dustjacket is in average condition, with speckles, simall tears and nicks, also with some liquid stain to outer upper corners. Board corners whow minor damage. Internally all right. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Art, japanese, plates</t>
-  </si>
-  <si>
-    <t>art</t>
-  </si>
-  <si>
-    <t>Gruyter, W. Jos. De</t>
-  </si>
-  <si>
-    <t>Japanse Prentkunst</t>
-  </si>
-  <si>
-    <t>Openbaar Kunstbezit</t>
-  </si>
-  <si>
-    <t>Board corners show bumps, Head lightly foxed, otherwise good. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Braidotti, Rosi</t>
-  </si>
-  <si>
-    <t>The posthuman</t>
-  </si>
-  <si>
-    <t>Philosophy,</t>
-  </si>
-  <si>
-    <t>Silva, Ariel</t>
-  </si>
-  <si>
-    <t>Bee Keeping - Explore the marvelous world of honeybees</t>
-  </si>
-  <si>
-    <t>Chronicle Books</t>
-  </si>
-  <si>
-    <t>Nature</t>
-  </si>
-  <si>
-    <t>Beekeeping, animal, nature</t>
-  </si>
-  <si>
-    <t>Galdos, Benito Perez</t>
-  </si>
-  <si>
-    <t>Miau</t>
-  </si>
-  <si>
-    <t>Literature - Spanish</t>
-  </si>
-  <si>
-    <t>Dustjacket shows light rubbing at spine edges. Book itself very lightly skewed, head shows a few spots. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Maupassant, Guy  de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre et Jean </t>
-  </si>
-  <si>
-    <t>Bronte, Charlotte</t>
-  </si>
-  <si>
-    <t>Jane Eyre</t>
-  </si>
-  <si>
-    <t>Webster, Smith (ed.)</t>
-  </si>
-  <si>
-    <t>Getijdenboek voor Farnese</t>
-  </si>
-  <si>
-    <t>Books on books</t>
-  </si>
-  <si>
-    <t>Fine in fine slipcase. In principle, books are cheaper in the shop.</t>
-  </si>
-  <si>
-    <t>Manuscript, illumination, book</t>
-  </si>
-  <si>
-    <t>books on books</t>
-  </si>
-  <si>
     <t>NO.</t>
   </si>
   <si>
@@ -4261,15 +3067,6 @@
   </si>
   <si>
     <t>New.</t>
-  </si>
-  <si>
-    <t>Onis, Ziya</t>
-  </si>
-  <si>
-    <t>Bogazici University Press</t>
-  </si>
-  <si>
-    <t>06.05.2024</t>
   </si>
 </sst>
 </file>
@@ -4740,7 +3537,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4748,10 +3545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z337"/>
+  <dimension ref="A1:Z232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D298" workbookViewId="0">
-      <selection activeCell="K311" sqref="K311"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D246" sqref="D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4771,76 +3568,76 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="12" t="s">
-        <v>1388</v>
+        <v>990</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>1389</v>
+        <v>991</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1390</v>
+        <v>992</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>1391</v>
+        <v>993</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>1392</v>
+        <v>994</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>1393</v>
+        <v>995</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>1394</v>
+        <v>996</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>1395</v>
+        <v>997</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>1396</v>
+        <v>998</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>1397</v>
+        <v>999</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>1398</v>
+        <v>1000</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>1399</v>
+        <v>1001</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1400</v>
+        <v>1002</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>1401</v>
+        <v>1003</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>1402</v>
+        <v>1004</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>1403</v>
+        <v>1005</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>1404</v>
+        <v>1006</v>
       </c>
       <c r="R1" s="15" t="s">
-        <v>1405</v>
+        <v>1007</v>
       </c>
       <c r="S1" s="15" t="s">
-        <v>1406</v>
+        <v>1008</v>
       </c>
       <c r="T1" s="16" t="s">
-        <v>1407</v>
+        <v>1009</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>1408</v>
+        <v>1010</v>
       </c>
       <c r="V1" s="18" t="s">
-        <v>1409</v>
+        <v>1011</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>1410</v>
+        <v>1012</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>1411</v>
+        <v>1013</v>
       </c>
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
@@ -6523,7 +5320,7 @@
         <v>32012</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1412</v>
+        <v>1014</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>149</v>
@@ -9543,7 +8340,7 @@
         <v>32059</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1412</v>
+        <v>1014</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>328</v>
@@ -15278,7 +14075,7 @@
       </c>
       <c r="K146" s="3"/>
       <c r="L146" s="3" t="s">
-        <v>1413</v>
+        <v>1015</v>
       </c>
       <c r="M146" s="3" t="s">
         <v>681</v>
@@ -15351,7 +14148,7 @@
       </c>
       <c r="K147" s="3"/>
       <c r="L147" s="3" t="s">
-        <v>1413</v>
+        <v>1015</v>
       </c>
       <c r="M147" s="3" t="s">
         <v>60</v>
@@ -18742,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="Q194" s="8">
-        <f t="shared" ref="Q194:Q257" si="15">(N194-P194)</f>
+        <f t="shared" ref="Q194:Q232" si="15">(N194-P194)</f>
         <v>9</v>
       </c>
       <c r="R194" s="1" t="s">
@@ -21525,7564 +20322,6 @@
         <v>200</v>
       </c>
       <c r="X232" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24">
-      <c r="A233" s="1">
-        <v>32240</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>991</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="G233" s="5">
-        <v>1980</v>
-      </c>
-      <c r="H233" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I233" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J233" s="5">
-        <v>55</v>
-      </c>
-      <c r="K233" s="3"/>
-      <c r="L233" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="M233" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N233" s="6">
-        <v>40</v>
-      </c>
-      <c r="O233" s="7">
-        <v>45</v>
-      </c>
-      <c r="P233" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q233" s="8">
-        <f t="shared" si="15"/>
-        <v>40</v>
-      </c>
-      <c r="R233" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S233" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T233" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U233" s="10"/>
-      <c r="V233" s="11">
-        <v>9780937452028</v>
-      </c>
-      <c r="W233" s="6">
-        <v>50</v>
-      </c>
-      <c r="X233" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24">
-      <c r="A234" s="1">
-        <v>32241</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="G234" s="5">
-        <v>1983</v>
-      </c>
-      <c r="H234" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I234" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J234" s="5">
-        <v>87</v>
-      </c>
-      <c r="K234" s="3"/>
-      <c r="L234" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="M234" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N234" s="6">
-        <v>50</v>
-      </c>
-      <c r="O234" s="7">
-        <v>55</v>
-      </c>
-      <c r="P234" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q234" s="8">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="R234" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S234" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T234" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U234" s="10"/>
-      <c r="V234" s="11"/>
-      <c r="W234" s="6">
-        <f>N234+7.5</f>
-        <v>57.5</v>
-      </c>
-      <c r="X234" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
-      <c r="A235" s="1">
-        <v>32242</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>997</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="D235" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="G235" s="5">
-        <v>1979</v>
-      </c>
-      <c r="H235" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I235" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J235" s="5">
-        <v>119</v>
-      </c>
-      <c r="K235" s="3"/>
-      <c r="L235" s="3" t="s">
-        <v>1000</v>
-      </c>
-      <c r="M235" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N235" s="6">
-        <v>45</v>
-      </c>
-      <c r="O235" s="7">
-        <f t="shared" ref="O235:O298" si="17">N235+1</f>
-        <v>46</v>
-      </c>
-      <c r="P235" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q235" s="8">
-        <f t="shared" si="15"/>
-        <v>45</v>
-      </c>
-      <c r="R235" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S235" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T235" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U235" s="10"/>
-      <c r="V235" s="11"/>
-      <c r="W235" s="6">
-        <f>N235+7.5</f>
-        <v>52.5</v>
-      </c>
-      <c r="X235" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24">
-      <c r="A236" s="1">
-        <v>32243</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D236" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>999</v>
-      </c>
-      <c r="G236" s="5">
-        <v>1983</v>
-      </c>
-      <c r="H236" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I236" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J236" s="5">
-        <v>239</v>
-      </c>
-      <c r="K236" s="3"/>
-      <c r="L236" s="3" t="s">
-        <v>1003</v>
-      </c>
-      <c r="M236" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N236" s="6">
-        <v>35</v>
-      </c>
-      <c r="O236" s="7">
-        <f t="shared" si="17"/>
-        <v>36</v>
-      </c>
-      <c r="P236" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q236" s="8">
-        <f t="shared" si="15"/>
-        <v>35</v>
-      </c>
-      <c r="R236" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S236" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T236" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U236" s="10"/>
-      <c r="V236" s="11"/>
-      <c r="W236" s="6">
-        <f>N236+7.5</f>
-        <v>42.5</v>
-      </c>
-      <c r="X236" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
-      <c r="A237" s="1">
-        <v>32244</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D237" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="G237" s="5">
-        <v>1996</v>
-      </c>
-      <c r="H237" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I237" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J237" s="5">
-        <v>61</v>
-      </c>
-      <c r="K237" s="3"/>
-      <c r="L237" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="M237" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N237" s="6">
-        <v>50</v>
-      </c>
-      <c r="O237" s="7">
-        <f t="shared" si="17"/>
-        <v>51</v>
-      </c>
-      <c r="P237" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q237" s="8">
-        <f t="shared" si="15"/>
-        <v>50</v>
-      </c>
-      <c r="R237" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S237" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T237" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U237" s="10"/>
-      <c r="V237" s="11">
-        <v>9780952404514</v>
-      </c>
-      <c r="W237" s="6">
-        <v>65</v>
-      </c>
-      <c r="X237" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24">
-      <c r="A238" s="1">
-        <v>32245</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D238" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G238" s="5">
-        <v>1972</v>
-      </c>
-      <c r="H238" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I238" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J238" s="5">
-        <v>92</v>
-      </c>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="M238" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N238" s="6">
-        <v>12</v>
-      </c>
-      <c r="O238" s="7">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="P238" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q238" s="8">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="R238" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S238" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T238" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U238" s="10"/>
-      <c r="V238" s="11">
-        <v>9780486229041</v>
-      </c>
-      <c r="W238" s="6">
-        <f>N238+7.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="X238" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24">
-      <c r="A239" s="1">
-        <v>32246</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D239" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="G239" s="5">
-        <v>1972</v>
-      </c>
-      <c r="H239" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I239" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J239" s="5">
-        <v>117</v>
-      </c>
-      <c r="K239" s="3"/>
-      <c r="L239" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="M239" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N239" s="6">
-        <v>12</v>
-      </c>
-      <c r="O239" s="7">
-        <f t="shared" si="17"/>
-        <v>13</v>
-      </c>
-      <c r="P239" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q239" s="8">
-        <f t="shared" si="15"/>
-        <v>12</v>
-      </c>
-      <c r="R239" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S239" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T239" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U239" s="10"/>
-      <c r="V239" s="11">
-        <v>9780486229058</v>
-      </c>
-      <c r="W239" s="6">
-        <f>N239+7.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="X239" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24">
-      <c r="A240" s="1">
-        <v>32247</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>1015</v>
-      </c>
-      <c r="G240" s="5">
-        <v>1998</v>
-      </c>
-      <c r="H240" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I240" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J240" s="5">
-        <v>32</v>
-      </c>
-      <c r="K240" s="3"/>
-      <c r="L240" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="M240" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N240" s="6">
-        <v>24</v>
-      </c>
-      <c r="O240" s="7">
-        <f t="shared" si="17"/>
-        <v>25</v>
-      </c>
-      <c r="P240" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q240" s="8">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="R240" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S240" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T240" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U240" s="10"/>
-      <c r="V240" s="11">
-        <v>9781891656064</v>
-      </c>
-      <c r="W240" s="6">
-        <v>34</v>
-      </c>
-      <c r="X240" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="1">
-        <v>32248</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E241" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G241" s="5">
-        <v>1997</v>
-      </c>
-      <c r="H241" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I241" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J241" s="5">
-        <v>92</v>
-      </c>
-      <c r="K241" s="3"/>
-      <c r="L241" s="3" t="s">
-        <v>1020</v>
-      </c>
-      <c r="M241" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="N241" s="6">
-        <v>24</v>
-      </c>
-      <c r="O241" s="7">
-        <f t="shared" si="17"/>
-        <v>25</v>
-      </c>
-      <c r="P241" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q241" s="8">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-      <c r="R241" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S241" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="T241" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="U241" s="10"/>
-      <c r="V241" s="11"/>
-      <c r="W241" s="6">
-        <f>N241+7.5</f>
-        <v>31.5</v>
-      </c>
-      <c r="X241" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24">
-      <c r="A242" s="1">
-        <v>32249</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G242" s="5">
-        <v>1968</v>
-      </c>
-      <c r="H242" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J242" s="5">
-        <v>390</v>
-      </c>
-      <c r="K242" s="3"/>
-      <c r="L242" s="3" t="s">
-        <v>1023</v>
-      </c>
-      <c r="M242" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="N242" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O242" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P242" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q242" s="8">
-        <f t="shared" si="15"/>
-        <v>6.5</v>
-      </c>
-      <c r="R242" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S242" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T242" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U242" s="10"/>
-      <c r="V242" s="11"/>
-      <c r="W242" s="6">
-        <f>N242+7.5</f>
-        <v>14</v>
-      </c>
-      <c r="X242" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24">
-      <c r="A243" s="1">
-        <v>32250</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G243" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H243" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I243" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J243" s="5">
-        <v>540</v>
-      </c>
-      <c r="K243" s="3"/>
-      <c r="L243" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="M243" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N243" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="O243" s="7">
-        <f t="shared" si="17"/>
-        <v>13.5</v>
-      </c>
-      <c r="P243" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q243" s="8">
-        <f t="shared" si="15"/>
-        <v>12.5</v>
-      </c>
-      <c r="R243" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S243" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T243" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U243" s="10"/>
-      <c r="V243" s="11"/>
-      <c r="W243" s="6">
-        <f>N243+7.5</f>
-        <v>20</v>
-      </c>
-      <c r="X243" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24">
-      <c r="A244" s="1">
-        <v>32251</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G244" s="5">
-        <v>2003</v>
-      </c>
-      <c r="H244" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I244" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J244" s="5">
-        <v>272</v>
-      </c>
-      <c r="K244" s="3"/>
-      <c r="L244" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M244" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="N244" s="6">
-        <v>16</v>
-      </c>
-      <c r="O244" s="7">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="P244" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q244" s="8">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="R244" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S244" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T244" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U244" s="10"/>
-      <c r="V244" s="11">
-        <v>9780262524360</v>
-      </c>
-      <c r="W244" s="6">
-        <v>24.5</v>
-      </c>
-      <c r="X244" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24">
-      <c r="A245" s="1">
-        <v>32252</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F245" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="G245" s="5">
-        <v>1987</v>
-      </c>
-      <c r="H245" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I245" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J245" s="5">
-        <v>167</v>
-      </c>
-      <c r="K245" s="3"/>
-      <c r="L245" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M245" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="N245" s="6">
-        <v>11</v>
-      </c>
-      <c r="O245" s="7">
-        <f t="shared" si="17"/>
-        <v>12</v>
-      </c>
-      <c r="P245" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q245" s="8">
-        <f t="shared" si="15"/>
-        <v>11</v>
-      </c>
-      <c r="R245" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S245" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T245" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U245" s="10"/>
-      <c r="V245" s="11">
-        <v>9780198772552</v>
-      </c>
-      <c r="W245" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="X245" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24">
-      <c r="A246" s="1">
-        <v>32253</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G246" s="5">
-        <v>1982</v>
-      </c>
-      <c r="H246" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J246" s="5">
-        <v>116</v>
-      </c>
-      <c r="K246" s="3"/>
-      <c r="L246" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="M246" s="3" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N246" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="O246" s="7">
-        <f t="shared" si="17"/>
-        <v>13.5</v>
-      </c>
-      <c r="P246" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q246" s="8">
-        <f t="shared" si="15"/>
-        <v>12.5</v>
-      </c>
-      <c r="R246" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S246" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T246" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U246" s="10"/>
-      <c r="V246" s="11">
-        <v>9780262580625</v>
-      </c>
-      <c r="W246" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="X246" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24">
-      <c r="A247" s="1">
-        <v>32254</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D247" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F247" s="4" t="s">
-        <v>1044</v>
-      </c>
-      <c r="G247" s="5">
-        <v>1974</v>
-      </c>
-      <c r="H247" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I247" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J247" s="5">
-        <v>666</v>
-      </c>
-      <c r="K247" s="3"/>
-      <c r="L247" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="M247" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="N247" s="6">
-        <v>30</v>
-      </c>
-      <c r="O247" s="7">
-        <f t="shared" si="17"/>
-        <v>31</v>
-      </c>
-      <c r="P247" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q247" s="8">
-        <f t="shared" si="15"/>
-        <v>30</v>
-      </c>
-      <c r="R247" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S247" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T247" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U247" s="10"/>
-      <c r="V247" s="11">
-        <v>9780853454304</v>
-      </c>
-      <c r="W247" s="6">
-        <v>40</v>
-      </c>
-      <c r="X247" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24">
-      <c r="A248" s="1">
-        <v>32255</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D248" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E248" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F248" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G248" s="5">
-        <v>2007</v>
-      </c>
-      <c r="H248" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I248" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J248" s="5">
-        <v>182</v>
-      </c>
-      <c r="K248" s="3"/>
-      <c r="L248" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M248" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="N248" s="6">
-        <v>13.5</v>
-      </c>
-      <c r="O248" s="7">
-        <f t="shared" si="17"/>
-        <v>14.5</v>
-      </c>
-      <c r="P248" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q248" s="8">
-        <f t="shared" si="15"/>
-        <v>13.5</v>
-      </c>
-      <c r="R248" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S248" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="T248" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U248" s="10"/>
-      <c r="V248" s="11">
-        <v>9781405151412</v>
-      </c>
-      <c r="W248" s="6">
-        <v>19</v>
-      </c>
-      <c r="X248" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24">
-      <c r="A249" s="1">
-        <v>32256</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>1053</v>
-      </c>
-      <c r="G249" s="5">
-        <v>1987</v>
-      </c>
-      <c r="H249" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I249" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J249" s="5">
-        <v>244</v>
-      </c>
-      <c r="K249" s="3"/>
-      <c r="L249" s="3" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M249" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="N249" s="6">
-        <v>35</v>
-      </c>
-      <c r="O249" s="7">
-        <f t="shared" si="17"/>
-        <v>36</v>
-      </c>
-      <c r="P249" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q249" s="8">
-        <f t="shared" si="15"/>
-        <v>35</v>
-      </c>
-      <c r="R249" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S249" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T249" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U249" s="10"/>
-      <c r="V249" s="11">
-        <v>9780043350492</v>
-      </c>
-      <c r="W249" s="6">
-        <v>45</v>
-      </c>
-      <c r="X249" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24">
-      <c r="A250" s="1">
-        <v>32257</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D250" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E250" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="G250" s="5">
-        <v>1996</v>
-      </c>
-      <c r="H250" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I250" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J250" s="5">
-        <v>209</v>
-      </c>
-      <c r="K250" s="3"/>
-      <c r="L250" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="M250" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="N250" s="6">
-        <v>55</v>
-      </c>
-      <c r="O250" s="7">
-        <f t="shared" si="17"/>
-        <v>56</v>
-      </c>
-      <c r="P250" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q250" s="8">
-        <f t="shared" si="15"/>
-        <v>55</v>
-      </c>
-      <c r="R250" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S250" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T250" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U250" s="10"/>
-      <c r="V250" s="11">
-        <v>9780198774723</v>
-      </c>
-      <c r="W250" s="6">
-        <v>64</v>
-      </c>
-      <c r="X250" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
-      <c r="A251" s="1">
-        <v>32258</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D251" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E251" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>1415</v>
-      </c>
-      <c r="G251" s="5">
-        <v>1980</v>
-      </c>
-      <c r="H251" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I251" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="J251" s="5">
-        <v>529</v>
-      </c>
-      <c r="K251" s="3"/>
-      <c r="L251" s="3" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M251" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="N251" s="6">
-        <v>25</v>
-      </c>
-      <c r="O251" s="7">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="P251" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q251" s="8">
-        <f t="shared" si="15"/>
-        <v>25</v>
-      </c>
-      <c r="R251" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S251" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T251" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U251" s="10"/>
-      <c r="V251" s="11">
-        <v>9789755181134</v>
-      </c>
-      <c r="W251" s="6">
-        <v>40</v>
-      </c>
-      <c r="X251" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24">
-      <c r="A252" s="1">
-        <v>32259</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>1065</v>
-      </c>
-      <c r="G252" s="5">
-        <v>2012</v>
-      </c>
-      <c r="H252" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I252" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="J252" s="5">
-        <v>400</v>
-      </c>
-      <c r="K252" s="3"/>
-      <c r="L252" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="M252" s="3" t="s">
-        <v>1066</v>
-      </c>
-      <c r="N252" s="6">
-        <v>16</v>
-      </c>
-      <c r="O252" s="7">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="P252" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q252" s="8">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="R252" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S252" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="T252" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U252" s="10"/>
-      <c r="V252" s="11">
-        <v>9780061719677</v>
-      </c>
-      <c r="W252" s="6">
-        <v>24.5</v>
-      </c>
-      <c r="X252" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24">
-      <c r="A253" s="1">
-        <v>32260</v>
-      </c>
-      <c r="B253" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F253" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="G253" s="5">
-        <v>1987</v>
-      </c>
-      <c r="H253" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I253" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J253" s="5">
-        <v>179</v>
-      </c>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="M253" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="N253" s="6">
-        <v>20</v>
-      </c>
-      <c r="O253" s="7">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="P253" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q253" s="8">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="R253" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S253" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T253" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U253" s="10"/>
-      <c r="V253" s="11">
-        <v>9780521378154</v>
-      </c>
-      <c r="W253" s="6">
-        <v>28</v>
-      </c>
-      <c r="X253" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24">
-      <c r="A254" s="1">
-        <v>32261</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D254" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E254" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G254" s="5">
-        <v>1980</v>
-      </c>
-      <c r="H254" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J254" s="5">
-        <v>366</v>
-      </c>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="M254" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="N254" s="6">
-        <v>20</v>
-      </c>
-      <c r="O254" s="7">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="P254" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q254" s="8">
-        <f t="shared" si="15"/>
-        <v>20</v>
-      </c>
-      <c r="R254" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S254" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T254" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U254" s="10"/>
-      <c r="V254" s="11">
-        <v>9780841905962</v>
-      </c>
-      <c r="W254" s="6">
-        <v>28</v>
-      </c>
-      <c r="X254" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24">
-      <c r="A255" s="1">
-        <v>32262</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D255" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E255" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F255" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="G255" s="5">
-        <v>1977</v>
-      </c>
-      <c r="H255" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I255" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J255" s="5">
-        <v>273</v>
-      </c>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="M255" s="3"/>
-      <c r="N255" s="6">
-        <v>10</v>
-      </c>
-      <c r="O255" s="7">
-        <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="P255" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q255" s="8">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="R255" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S255" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T255" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U255" s="10"/>
-      <c r="V255" s="11"/>
-      <c r="W255" s="6">
-        <f>N255+7.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="X255" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24">
-      <c r="A256" s="1">
-        <v>32263</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E256" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F256" s="4" t="s">
-        <v>1081</v>
-      </c>
-      <c r="G256" s="5">
-        <v>1996</v>
-      </c>
-      <c r="H256" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I256" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="J256" s="5">
-        <v>145</v>
-      </c>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M256" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="N256" s="6">
-        <v>15</v>
-      </c>
-      <c r="O256" s="7">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="P256" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q256" s="8">
-        <f t="shared" si="15"/>
-        <v>15</v>
-      </c>
-      <c r="R256" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S256" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="T256" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U256" s="10"/>
-      <c r="V256" s="11">
-        <v>9781562790868</v>
-      </c>
-      <c r="W256" s="6">
-        <f>N256+7.5</f>
-        <v>22.5</v>
-      </c>
-      <c r="X256" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24">
-      <c r="A257" s="1">
-        <v>32264</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D257" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E257" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>1088</v>
-      </c>
-      <c r="G257" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H257" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I257" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J257" s="5">
-        <v>174</v>
-      </c>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M257" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N257" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="O257" s="7">
-        <f t="shared" si="17"/>
-        <v>18.5</v>
-      </c>
-      <c r="P257" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q257" s="8">
-        <f t="shared" si="15"/>
-        <v>17.5</v>
-      </c>
-      <c r="R257" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S257" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="T257" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U257" s="10"/>
-      <c r="V257" s="11">
-        <v>9789025907877</v>
-      </c>
-      <c r="W257" s="6">
-        <f>N257+7.5</f>
-        <v>25</v>
-      </c>
-      <c r="X257" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24">
-      <c r="A258" s="1">
-        <v>32265</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E258" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F258" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="G258" s="5">
-        <v>2022</v>
-      </c>
-      <c r="H258" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I258" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="J258" s="5">
-        <v>144</v>
-      </c>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M258" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N258" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="O258" s="7">
-        <f t="shared" si="17"/>
-        <v>19.5</v>
-      </c>
-      <c r="P258" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q258" s="8">
-        <f t="shared" ref="Q258:Q321" si="18">(N258-P258)</f>
-        <v>18.5</v>
-      </c>
-      <c r="R258" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S258" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T258" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U258" s="10"/>
-      <c r="V258" s="11">
-        <v>9780231201759</v>
-      </c>
-      <c r="W258" s="6">
-        <f>N258+7.5</f>
-        <v>26</v>
-      </c>
-      <c r="X258" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24">
-      <c r="A259" s="1">
-        <v>32266</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D259" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F259" s="4" t="s">
-        <v>1094</v>
-      </c>
-      <c r="G259" s="5">
-        <v>2023</v>
-      </c>
-      <c r="H259" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I259" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J259" s="5">
-        <v>206</v>
-      </c>
-      <c r="K259" s="3"/>
-      <c r="L259" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M259" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="N259" s="6">
-        <v>16</v>
-      </c>
-      <c r="O259" s="7">
-        <f t="shared" si="17"/>
-        <v>17</v>
-      </c>
-      <c r="P259" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q259" s="8">
-        <f t="shared" si="18"/>
-        <v>16</v>
-      </c>
-      <c r="R259" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S259" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T259" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U259" s="10"/>
-      <c r="V259" s="11"/>
-      <c r="W259" s="6">
-        <f>N259+7.5</f>
-        <v>23.5</v>
-      </c>
-      <c r="X259" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24">
-      <c r="A260" s="1">
-        <v>32267</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D260" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E260" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F260" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="G260" s="5">
-        <v>1988</v>
-      </c>
-      <c r="H260" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I260" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="J260" s="5">
-        <v>231</v>
-      </c>
-      <c r="K260" s="3"/>
-      <c r="L260" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="M260" s="3" t="s">
-        <v>1099</v>
-      </c>
-      <c r="N260" s="6">
-        <v>8</v>
-      </c>
-      <c r="O260" s="7">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="P260" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q260" s="8">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="R260" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S260" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T260" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U260" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V260" s="11">
-        <v>9780140225631</v>
-      </c>
-      <c r="W260" s="6">
-        <v>17</v>
-      </c>
-      <c r="X260" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="1">
-        <v>32268</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D261" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E261" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F261" s="4" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G261" s="5">
-        <v>1979</v>
-      </c>
-      <c r="H261" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I261" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J261" s="5">
-        <v>235</v>
-      </c>
-      <c r="K261" s="3"/>
-      <c r="L261" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="M261" s="3" t="s">
-        <v>1104</v>
-      </c>
-      <c r="N261" s="6">
-        <v>15</v>
-      </c>
-      <c r="O261" s="7">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="P261" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q261" s="8">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="R261" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="S261" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T261" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U261" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V261" s="11">
-        <v>9780860510857</v>
-      </c>
-      <c r="W261" s="6">
-        <v>24</v>
-      </c>
-      <c r="X261" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24">
-      <c r="A262" s="1">
-        <v>32269</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E262" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F262" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="G262" s="5">
-        <v>0</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I262" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="J262" s="5">
-        <v>443</v>
-      </c>
-      <c r="K262" s="3"/>
-      <c r="L262" s="3" t="s">
-        <v>1108</v>
-      </c>
-      <c r="M262" s="3" t="s">
-        <v>1109</v>
-      </c>
-      <c r="N262" s="6">
-        <v>14</v>
-      </c>
-      <c r="O262" s="7">
-        <f t="shared" si="17"/>
-        <v>15</v>
-      </c>
-      <c r="P262" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="Q262" s="8">
-        <f t="shared" si="18"/>
-        <v>13.3</v>
-      </c>
-      <c r="R262" s="1" t="s">
-        <v>1110</v>
-      </c>
-      <c r="S262" s="1" t="s">
-        <v>1111</v>
-      </c>
-      <c r="T262" s="9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="U262" s="10"/>
-      <c r="V262" s="11"/>
-      <c r="W262" s="6">
-        <f>N262+7.5</f>
-        <v>21.5</v>
-      </c>
-      <c r="X262" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24">
-      <c r="A263" s="1">
-        <v>32270</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E263" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G263" s="5">
-        <v>1957</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J263" s="5">
-        <v>183</v>
-      </c>
-      <c r="K263" s="3"/>
-      <c r="L263" s="3" t="s">
-        <v>1115</v>
-      </c>
-      <c r="M263" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N263" s="6">
-        <v>5</v>
-      </c>
-      <c r="O263" s="7">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="P263" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q263" s="8">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="R263" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S263" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T263" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U263" s="10"/>
-      <c r="V263" s="11"/>
-      <c r="W263" s="6">
-        <f>N263+7.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="X263" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24">
-      <c r="A264" s="1">
-        <v>32271</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E264" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F264" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G264" s="5">
-        <v>1996</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I264" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J264" s="5">
-        <v>478</v>
-      </c>
-      <c r="K264" s="3"/>
-      <c r="L264" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M264" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N264" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O264" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P264" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q264" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R264" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S264" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T264" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U264" s="10"/>
-      <c r="V264" s="11">
-        <v>9780552143776</v>
-      </c>
-      <c r="W264" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="X264" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24">
-      <c r="A265" s="1">
-        <v>32272</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F265" s="4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="G265" s="5">
-        <v>2006</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I265" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J265" s="5">
-        <v>438</v>
-      </c>
-      <c r="K265" s="3"/>
-      <c r="L265" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M265" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N265" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O265" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P265" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q265" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R265" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S265" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T265" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U265" s="10"/>
-      <c r="V265" s="11">
-        <v>9780751539356</v>
-      </c>
-      <c r="W265" s="6">
-        <v>16</v>
-      </c>
-      <c r="X265" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24">
-      <c r="A266" s="1">
-        <v>32273</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F266" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G266" s="5">
-        <v>2006</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I266" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J266" s="5">
-        <v>787</v>
-      </c>
-      <c r="K266" s="3"/>
-      <c r="L266" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M266" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N266" s="6">
-        <v>7</v>
-      </c>
-      <c r="O266" s="7">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="P266" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q266" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="R266" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S266" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T266" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U266" s="10"/>
-      <c r="V266" s="11">
-        <v>9780099498070</v>
-      </c>
-      <c r="W266" s="6">
-        <v>16</v>
-      </c>
-      <c r="X266" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24">
-      <c r="A267" s="1">
-        <v>32274</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G267" s="5">
-        <v>1978</v>
-      </c>
-      <c r="H267" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I267" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J267" s="5">
-        <v>529</v>
-      </c>
-      <c r="K267" s="3"/>
-      <c r="L267" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="M267" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N267" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="O267" s="7">
-        <f t="shared" si="17"/>
-        <v>6.5</v>
-      </c>
-      <c r="P267" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q267" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5</v>
-      </c>
-      <c r="R267" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S267" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T267" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U267" s="10"/>
-      <c r="V267" s="11"/>
-      <c r="W267" s="6">
-        <f>N267+7.5</f>
-        <v>13</v>
-      </c>
-      <c r="X267" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24">
-      <c r="A268" s="1">
-        <v>32275</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="D268" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F268" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G268" s="5">
-        <v>1977</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I268" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J268" s="5">
-        <v>536</v>
-      </c>
-      <c r="K268" s="3"/>
-      <c r="L268" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M268" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N268" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O268" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P268" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q268" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R268" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S268" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T268" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U268" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V268" s="11">
-        <v>9780140041026</v>
-      </c>
-      <c r="W268" s="6">
-        <v>16</v>
-      </c>
-      <c r="X268" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24">
-      <c r="A269" s="1">
-        <v>32276</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F269" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G269" s="5">
-        <v>1976</v>
-      </c>
-      <c r="H269" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I269" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J269" s="5">
-        <v>382</v>
-      </c>
-      <c r="K269" s="3"/>
-      <c r="L269" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M269" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N269" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O269" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P269" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q269" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R269" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S269" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T269" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U269" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V269" s="11">
-        <v>9780140024517</v>
-      </c>
-      <c r="W269" s="6">
-        <v>16</v>
-      </c>
-      <c r="X269" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24">
-      <c r="A270" s="1">
-        <v>32277</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D270" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F270" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="G270" s="5">
-        <v>1963</v>
-      </c>
-      <c r="H270" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I270" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J270" s="5">
-        <v>383</v>
-      </c>
-      <c r="K270" s="3"/>
-      <c r="L270" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="M270" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N270" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O270" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P270" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q270" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R270" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S270" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T270" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U270" s="10"/>
-      <c r="V270" s="11"/>
-      <c r="W270" s="6">
-        <f>N270+7.5</f>
-        <v>14</v>
-      </c>
-      <c r="X270" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24">
-      <c r="A271" s="1">
-        <v>32278</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D271" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F271" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="G271" s="5">
-        <v>1984</v>
-      </c>
-      <c r="H271" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I271" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J271" s="5">
-        <v>502</v>
-      </c>
-      <c r="K271" s="3"/>
-      <c r="L271" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M271" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N271" s="6">
-        <v>8</v>
-      </c>
-      <c r="O271" s="7">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="P271" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q271" s="8">
-        <f t="shared" si="18"/>
-        <v>8</v>
-      </c>
-      <c r="R271" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S271" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T271" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U271" s="10"/>
-      <c r="V271" s="11">
-        <v>9780460114004</v>
-      </c>
-      <c r="W271" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="X271" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24">
-      <c r="A272" s="1">
-        <v>32279</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D272" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G272" s="5">
-        <v>1995</v>
-      </c>
-      <c r="H272" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I272" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="J272" s="5">
-        <v>277</v>
-      </c>
-      <c r="K272" s="3"/>
-      <c r="L272" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M272" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="N272" s="6">
-        <v>6</v>
-      </c>
-      <c r="O272" s="7">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="P272" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q272" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="R272" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S272" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T272" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U272" s="10"/>
-      <c r="V272" s="11">
-        <v>9780770427092</v>
-      </c>
-      <c r="W272" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="X272" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24">
-      <c r="A273" s="1">
-        <v>32280</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D273" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F273" s="4" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G273" s="5">
-        <v>1991</v>
-      </c>
-      <c r="H273" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I273" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="J273" s="5">
-        <v>633</v>
-      </c>
-      <c r="K273" s="3"/>
-      <c r="L273" s="3" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M273" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N273" s="6">
-        <v>7</v>
-      </c>
-      <c r="O273" s="7">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="P273" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q273" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="R273" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S273" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T273" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U273" s="10"/>
-      <c r="V273" s="11">
-        <v>9780821733332</v>
-      </c>
-      <c r="W273" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="X273" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24">
-      <c r="A274" s="1">
-        <v>32281</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="D274" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F274" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G274" s="5">
-        <v>1980</v>
-      </c>
-      <c r="H274" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I274" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="J274" s="5">
-        <v>305</v>
-      </c>
-      <c r="K274" s="3"/>
-      <c r="L274" s="3" t="s">
-        <v>1142</v>
-      </c>
-      <c r="M274" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N274" s="6">
-        <v>6</v>
-      </c>
-      <c r="O274" s="7">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="P274" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q274" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="R274" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S274" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T274" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U274" s="10"/>
-      <c r="V274" s="11">
-        <v>9780553136562</v>
-      </c>
-      <c r="W274" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="X274" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24">
-      <c r="A275" s="1">
-        <v>32282</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G275" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H275" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I275" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J275" s="5">
-        <v>840</v>
-      </c>
-      <c r="K275" s="3"/>
-      <c r="L275" s="3" t="s">
-        <v>1146</v>
-      </c>
-      <c r="M275" s="3" t="s">
-        <v>1147</v>
-      </c>
-      <c r="N275" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O275" s="7">
-        <f t="shared" si="17"/>
-        <v>9.5</v>
-      </c>
-      <c r="P275" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q275" s="8">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-      <c r="R275" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S275" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T275" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U275" s="10"/>
-      <c r="V275" s="11"/>
-      <c r="W275" s="6">
-        <f>N275+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X275" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24">
-      <c r="A276" s="1">
-        <v>32283</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E276" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>1149</v>
-      </c>
-      <c r="G276" s="5">
-        <v>1983</v>
-      </c>
-      <c r="H276" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I276" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J276" s="5">
-        <v>651</v>
-      </c>
-      <c r="K276" s="3"/>
-      <c r="L276" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M276" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N276" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O276" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P276" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q276" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R276" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S276" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T276" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U276" s="10"/>
-      <c r="V276" s="11">
-        <v>9780446308250</v>
-      </c>
-      <c r="W276" s="6">
-        <v>17</v>
-      </c>
-      <c r="X276" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="277" spans="1:24">
-      <c r="A277" s="1">
-        <v>32284</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F277" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="G277" s="5">
-        <v>1971</v>
-      </c>
-      <c r="H277" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I277" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J277" s="5">
-        <v>479</v>
-      </c>
-      <c r="K277" s="3"/>
-      <c r="L277" s="3" t="s">
-        <v>1150</v>
-      </c>
-      <c r="M277" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N277" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O277" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P277" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q277" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R277" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S277" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T277" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U277" s="10"/>
-      <c r="V277" s="11"/>
-      <c r="W277" s="6">
-        <f>N277+7.5</f>
-        <v>14</v>
-      </c>
-      <c r="X277" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="278" spans="1:24">
-      <c r="A278" s="1">
-        <v>32285</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D278" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G278" s="5">
-        <v>1988</v>
-      </c>
-      <c r="H278" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I278" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J278" s="5">
-        <v>276</v>
-      </c>
-      <c r="K278" s="3"/>
-      <c r="L278" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="M278" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N278" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O278" s="7">
-        <f t="shared" si="17"/>
-        <v>7.5</v>
-      </c>
-      <c r="P278" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q278" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R278" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S278" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T278" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U278" s="10"/>
-      <c r="V278" s="11">
-        <v>9780425106884</v>
-      </c>
-      <c r="W278" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="X278" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24">
-      <c r="A279" s="1">
-        <v>32286</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E279" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F279" s="4" t="s">
-        <v>1145</v>
-      </c>
-      <c r="G279" s="5">
-        <v>1995</v>
-      </c>
-      <c r="H279" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I279" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J279" s="5">
-        <v>608</v>
-      </c>
-      <c r="K279" s="3"/>
-      <c r="L279" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="M279" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N279" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="O279" s="7">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="P279" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q279" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R279" s="1" t="s">
-        <v>948</v>
-      </c>
-      <c r="S279" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T279" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U279" s="10"/>
-      <c r="V279" s="11">
-        <v>9780452272699</v>
-      </c>
-      <c r="W279" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="X279" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="280" spans="1:24">
-      <c r="A280" s="1">
-        <v>32287</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E280" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G280" s="5">
-        <v>1981</v>
-      </c>
-      <c r="H280" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I280" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J280" s="5">
-        <v>434</v>
-      </c>
-      <c r="K280" s="3"/>
-      <c r="L280" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M280" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="N280" s="6">
-        <v>6</v>
-      </c>
-      <c r="O280" s="7">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="P280" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q280" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="R280" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S280" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T280" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U280" s="10"/>
-      <c r="V280" s="11"/>
-      <c r="W280" s="6">
-        <f t="shared" ref="W280:W287" si="19">N280+7.5</f>
-        <v>13.5</v>
-      </c>
-      <c r="X280" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24">
-      <c r="A281" s="1">
-        <v>32288</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D281" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E281" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F281" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G281" s="5">
-        <v>1973</v>
-      </c>
-      <c r="H281" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I281" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J281" s="5">
-        <v>434</v>
-      </c>
-      <c r="K281" s="3"/>
-      <c r="L281" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="M281" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N281" s="6">
-        <v>6</v>
-      </c>
-      <c r="O281" s="7">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="P281" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q281" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="R281" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S281" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T281" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U281" s="10"/>
-      <c r="V281" s="11"/>
-      <c r="W281" s="6">
-        <f t="shared" si="19"/>
-        <v>13.5</v>
-      </c>
-      <c r="X281" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24">
-      <c r="A282" s="1">
-        <v>32289</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E282" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F282" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G282" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H282" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I282" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J282" s="5">
-        <v>190</v>
-      </c>
-      <c r="K282" s="3"/>
-      <c r="L282" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="M282" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N282" s="6">
-        <v>5</v>
-      </c>
-      <c r="O282" s="7">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="P282" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q282" s="8">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="R282" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S282" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T282" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U282" s="10"/>
-      <c r="V282" s="11"/>
-      <c r="W282" s="6">
-        <f t="shared" si="19"/>
-        <v>12.5</v>
-      </c>
-      <c r="X282" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="283" spans="1:24">
-      <c r="A283" s="1">
-        <v>32290</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E283" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F283" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G283" s="5">
-        <v>1967</v>
-      </c>
-      <c r="H283" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I283" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J283" s="5">
-        <v>382</v>
-      </c>
-      <c r="K283" s="3"/>
-      <c r="L283" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M283" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N283" s="6">
-        <v>6</v>
-      </c>
-      <c r="O283" s="7">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="P283" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q283" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="R283" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S283" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T283" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U283" s="10"/>
-      <c r="V283" s="11"/>
-      <c r="W283" s="6">
-        <f t="shared" si="19"/>
-        <v>13.5</v>
-      </c>
-      <c r="X283" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="284" spans="1:24">
-      <c r="A284" s="1">
-        <v>32291</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E284" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F284" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G284" s="5">
-        <v>1966</v>
-      </c>
-      <c r="H284" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I284" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J284" s="5">
-        <v>638</v>
-      </c>
-      <c r="K284" s="3"/>
-      <c r="L284" s="3" t="s">
-        <v>1168</v>
-      </c>
-      <c r="M284" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N284" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="O284" s="7">
-        <f t="shared" si="17"/>
-        <v>6.5</v>
-      </c>
-      <c r="P284" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q284" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5</v>
-      </c>
-      <c r="R284" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S284" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T284" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U284" s="10"/>
-      <c r="V284" s="11"/>
-      <c r="W284" s="6">
-        <f t="shared" si="19"/>
-        <v>13</v>
-      </c>
-      <c r="X284" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="285" spans="1:24">
-      <c r="A285" s="1">
-        <v>32292</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E285" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F285" s="4" t="s">
-        <v>1172</v>
-      </c>
-      <c r="G285" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H285" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I285" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J285" s="5">
-        <v>272</v>
-      </c>
-      <c r="K285" s="3"/>
-      <c r="L285" s="3" t="s">
-        <v>1173</v>
-      </c>
-      <c r="M285" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N285" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O285" s="7">
-        <f t="shared" si="17"/>
-        <v>9.5</v>
-      </c>
-      <c r="P285" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q285" s="8">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-      <c r="R285" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S285" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T285" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U285" s="10"/>
-      <c r="V285" s="11"/>
-      <c r="W285" s="6">
-        <f t="shared" si="19"/>
-        <v>16</v>
-      </c>
-      <c r="X285" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="286" spans="1:24">
-      <c r="A286" s="1">
-        <v>32293</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E286" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F286" s="4" t="s">
-        <v>1176</v>
-      </c>
-      <c r="G286" s="5">
-        <v>1964</v>
-      </c>
-      <c r="H286" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I286" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J286" s="5">
-        <v>666</v>
-      </c>
-      <c r="K286" s="3"/>
-      <c r="L286" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="M286" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="N286" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="O286" s="7">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="P286" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q286" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R286" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S286" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T286" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U286" s="10"/>
-      <c r="V286" s="11"/>
-      <c r="W286" s="6">
-        <f t="shared" si="19"/>
-        <v>15</v>
-      </c>
-      <c r="X286" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="287" spans="1:24">
-      <c r="A287" s="1">
-        <v>32294</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E287" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F287" s="4" t="s">
-        <v>1181</v>
-      </c>
-      <c r="G287" s="5">
-        <v>1983</v>
-      </c>
-      <c r="H287" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I287" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="J287" s="5">
-        <v>293</v>
-      </c>
-      <c r="K287" s="3"/>
-      <c r="L287" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="M287" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="N287" s="6">
-        <v>25</v>
-      </c>
-      <c r="O287" s="7">
-        <f t="shared" si="17"/>
-        <v>26</v>
-      </c>
-      <c r="P287" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q287" s="8">
-        <f t="shared" si="18"/>
-        <v>25</v>
-      </c>
-      <c r="R287" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S287" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T287" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U287" s="10"/>
-      <c r="V287" s="11"/>
-      <c r="W287" s="6">
-        <f t="shared" si="19"/>
-        <v>32.5</v>
-      </c>
-      <c r="X287" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="288" spans="1:24">
-      <c r="A288" s="1">
-        <v>32295</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E288" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>487</v>
-      </c>
-      <c r="G288" s="5">
-        <v>2007</v>
-      </c>
-      <c r="H288" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I288" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J288" s="5">
-        <v>342</v>
-      </c>
-      <c r="K288" s="3"/>
-      <c r="L288" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M288" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="N288" s="6">
-        <v>10</v>
-      </c>
-      <c r="O288" s="7">
-        <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="P288" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q288" s="8">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="R288" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S288" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T288" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U288" s="10"/>
-      <c r="V288" s="11">
-        <v>9783518458792</v>
-      </c>
-      <c r="W288" s="6">
-        <v>18</v>
-      </c>
-      <c r="X288" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="289" spans="1:24">
-      <c r="A289" s="1">
-        <v>32296</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E289" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F289" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G289" s="5">
-        <v>2020</v>
-      </c>
-      <c r="H289" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I289" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J289" s="5">
-        <v>203</v>
-      </c>
-      <c r="K289" s="3"/>
-      <c r="L289" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="M289" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="N289" s="6">
-        <v>15</v>
-      </c>
-      <c r="O289" s="7">
-        <f t="shared" si="17"/>
-        <v>16</v>
-      </c>
-      <c r="P289" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q289" s="8">
-        <f t="shared" si="18"/>
-        <v>15</v>
-      </c>
-      <c r="R289" s="1" t="s">
-        <v>1160</v>
-      </c>
-      <c r="S289" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T289" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U289" s="10"/>
-      <c r="V289" s="11">
-        <v>9783257070514</v>
-      </c>
-      <c r="W289" s="6">
-        <v>19.95</v>
-      </c>
-      <c r="X289" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="290" spans="1:24">
-      <c r="A290" s="1">
-        <v>32297</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="E290" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F290" s="4" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G290" s="5">
-        <v>1994</v>
-      </c>
-      <c r="H290" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I290" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="J290" s="5">
-        <v>124</v>
-      </c>
-      <c r="K290" s="3"/>
-      <c r="L290" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M290" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N290" s="6">
-        <v>7</v>
-      </c>
-      <c r="O290" s="7">
-        <f t="shared" si="17"/>
-        <v>8</v>
-      </c>
-      <c r="P290" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q290" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="R290" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="S290" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="T290" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U290" s="10"/>
-      <c r="V290" s="11">
-        <v>9788807811166</v>
-      </c>
-      <c r="W290" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="X290" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="291" spans="1:24">
-      <c r="A291" s="1">
-        <v>32298</v>
-      </c>
-      <c r="B291" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E291" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>1198</v>
-      </c>
-      <c r="G291" s="5">
-        <v>1968</v>
-      </c>
-      <c r="H291" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I291" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J291" s="5">
-        <v>206</v>
-      </c>
-      <c r="K291" s="3"/>
-      <c r="L291" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M291" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N291" s="6">
-        <v>10</v>
-      </c>
-      <c r="O291" s="7">
-        <f t="shared" si="17"/>
-        <v>11</v>
-      </c>
-      <c r="P291" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q291" s="8">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="R291" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="S291" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="T291" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U291" s="10"/>
-      <c r="V291" s="11"/>
-      <c r="W291" s="6">
-        <f>N291+7.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="X291" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="292" spans="1:24">
-      <c r="A292" s="1">
-        <v>32299</v>
-      </c>
-      <c r="B292" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F292" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="G292" s="5">
-        <v>1990</v>
-      </c>
-      <c r="H292" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I292" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="J292" s="5">
-        <v>254</v>
-      </c>
-      <c r="K292" s="3"/>
-      <c r="L292" s="3" t="s">
-        <v>1202</v>
-      </c>
-      <c r="M292" s="3" t="s">
-        <v>1203</v>
-      </c>
-      <c r="N292" s="6">
-        <v>20</v>
-      </c>
-      <c r="O292" s="7">
-        <f t="shared" si="17"/>
-        <v>21</v>
-      </c>
-      <c r="P292" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q292" s="8">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="R292" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="S292" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="T292" s="9" t="s">
-        <v>1116</v>
-      </c>
-      <c r="U292" s="10"/>
-      <c r="V292" s="11">
-        <v>9029506342</v>
-      </c>
-      <c r="W292" s="6">
-        <v>30</v>
-      </c>
-      <c r="X292" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="293" spans="1:24">
-      <c r="A293" s="1">
-        <v>32300</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F293" s="4" t="s">
-        <v>1206</v>
-      </c>
-      <c r="G293" s="5">
-        <v>2020</v>
-      </c>
-      <c r="H293" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I293" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J293" s="5">
-        <v>442</v>
-      </c>
-      <c r="K293" s="3"/>
-      <c r="L293" s="3" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M293" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N293" s="6">
-        <v>8</v>
-      </c>
-      <c r="O293" s="7">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="P293" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q293" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="R293" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S293" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T293" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U293" s="10"/>
-      <c r="V293" s="11">
-        <v>9781789093179</v>
-      </c>
-      <c r="W293" s="6">
-        <f>N293+7.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="X293" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="294" spans="1:24">
-      <c r="A294" s="1">
-        <v>32301</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F294" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G294" s="5">
-        <v>1995</v>
-      </c>
-      <c r="H294" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I294" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J294" s="5">
-        <v>184</v>
-      </c>
-      <c r="K294" s="3"/>
-      <c r="L294" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M294" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="N294" s="6">
-        <v>8</v>
-      </c>
-      <c r="O294" s="7">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="P294" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q294" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="R294" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S294" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T294" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U294" s="10"/>
-      <c r="V294" s="11">
-        <v>9780747519966</v>
-      </c>
-      <c r="W294" s="6">
-        <f>N294+7.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="X294" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="295" spans="1:24">
-      <c r="A295" s="1">
-        <v>32302</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F295" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="G295" s="5">
-        <v>1993</v>
-      </c>
-      <c r="H295" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I295" s="3" t="s">
-        <v>1216</v>
-      </c>
-      <c r="J295" s="5">
-        <v>448</v>
-      </c>
-      <c r="K295" s="3"/>
-      <c r="L295" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="M295" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="N295" s="6">
-        <v>5</v>
-      </c>
-      <c r="O295" s="7">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="P295" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q295" s="8">
-        <f t="shared" si="18"/>
-        <v>4</v>
-      </c>
-      <c r="R295" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S295" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="T295" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U295" s="10"/>
-      <c r="V295" s="11">
-        <v>9781853260445</v>
-      </c>
-      <c r="W295" s="6">
-        <f>N295+7.5</f>
-        <v>12.5</v>
-      </c>
-      <c r="X295" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="296" spans="1:24">
-      <c r="A296" s="1">
-        <v>32303</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D296" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F296" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="G296" s="5">
-        <v>1999</v>
-      </c>
-      <c r="H296" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I296" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J296" s="5">
-        <v>616</v>
-      </c>
-      <c r="K296" s="3"/>
-      <c r="L296" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M296" s="3" t="s">
-        <v>1221</v>
-      </c>
-      <c r="N296" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="O296" s="7">
-        <f t="shared" si="17"/>
-        <v>8.5</v>
-      </c>
-      <c r="P296" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q296" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R296" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S296" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T296" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U296" s="10"/>
-      <c r="V296" s="11">
-        <v>9780571201983</v>
-      </c>
-      <c r="W296" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="X296" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="297" spans="1:24">
-      <c r="A297" s="1">
-        <v>32304</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F297" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="G297" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H297" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I297" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="J297" s="5">
-        <v>186</v>
-      </c>
-      <c r="K297" s="3"/>
-      <c r="L297" s="3" t="s">
-        <v>1223</v>
-      </c>
-      <c r="M297" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N297" s="6">
-        <v>8</v>
-      </c>
-      <c r="O297" s="7">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
-      <c r="P297" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q297" s="8">
-        <f t="shared" si="18"/>
-        <v>7</v>
-      </c>
-      <c r="R297" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S297" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T297" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U297" s="10"/>
-      <c r="V297" s="11">
-        <v>9780860680642</v>
-      </c>
-      <c r="W297" s="6">
-        <f>N297+7.5</f>
-        <v>15.5</v>
-      </c>
-      <c r="X297" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="298" spans="1:24">
-      <c r="A298" s="1">
-        <v>32305</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="D298" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E298" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F298" s="4" t="s">
-        <v>913</v>
-      </c>
-      <c r="G298" s="5">
-        <v>2018</v>
-      </c>
-      <c r="H298" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I298" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J298" s="5">
-        <v>264</v>
-      </c>
-      <c r="K298" s="3"/>
-      <c r="L298" s="3" t="s">
-        <v>1226</v>
-      </c>
-      <c r="M298" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N298" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O298" s="7">
-        <f t="shared" si="17"/>
-        <v>9.5</v>
-      </c>
-      <c r="P298" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q298" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R298" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S298" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T298" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U298" s="10"/>
-      <c r="V298" s="11">
-        <v>9781473225565</v>
-      </c>
-      <c r="W298" s="6">
-        <f>N298+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X298" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="299" spans="1:24">
-      <c r="A299" s="1">
-        <v>32306</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>1228</v>
-      </c>
-      <c r="D299" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E299" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F299" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="G299" s="5">
-        <v>2016</v>
-      </c>
-      <c r="H299" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I299" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J299" s="5">
-        <v>465</v>
-      </c>
-      <c r="K299" s="3"/>
-      <c r="L299" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M299" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N299" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O299" s="7">
-        <f t="shared" ref="O299:O337" si="20">N299+1</f>
-        <v>9.5</v>
-      </c>
-      <c r="P299" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q299" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R299" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S299" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T299" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U299" s="10"/>
-      <c r="V299" s="11"/>
-      <c r="W299" s="6">
-        <f>N299+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X299" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="300" spans="1:24">
-      <c r="A300" s="1">
-        <v>32307</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>1232</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F300" s="4" t="s">
-        <v>1233</v>
-      </c>
-      <c r="G300" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I300" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J300" s="5">
-        <v>491</v>
-      </c>
-      <c r="K300" s="3"/>
-      <c r="L300" s="3" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M300" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="N300" s="6">
-        <v>7</v>
-      </c>
-      <c r="O300" s="7">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="P300" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q300" s="8">
-        <f t="shared" si="18"/>
-        <v>6</v>
-      </c>
-      <c r="R300" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S300" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T300" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U300" s="10"/>
-      <c r="V300" s="11"/>
-      <c r="W300" s="6">
-        <f>N300+7.5</f>
-        <v>14.5</v>
-      </c>
-      <c r="X300" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="301" spans="1:24">
-      <c r="A301" s="1">
-        <v>32308</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F301" s="4" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G301" s="5">
-        <v>2023</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I301" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J301" s="5">
-        <v>387</v>
-      </c>
-      <c r="K301" s="3"/>
-      <c r="L301" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="M301" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N301" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="O301" s="7">
-        <f t="shared" si="20"/>
-        <v>13.5</v>
-      </c>
-      <c r="P301" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q301" s="8">
-        <f t="shared" si="18"/>
-        <v>11.5</v>
-      </c>
-      <c r="R301" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S301" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T301" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U301" s="10"/>
-      <c r="V301" s="11">
-        <v>9780593597262</v>
-      </c>
-      <c r="W301" s="6">
-        <v>19.95</v>
-      </c>
-      <c r="X301" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="302" spans="1:24">
-      <c r="A302" s="1">
-        <v>32309</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>1240</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F302" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="G302" s="5">
-        <v>2022</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I302" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="J302" s="5">
-        <v>252</v>
-      </c>
-      <c r="K302" s="3"/>
-      <c r="L302" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="M302" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N302" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O302" s="7">
-        <f t="shared" si="20"/>
-        <v>9.5</v>
-      </c>
-      <c r="P302" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q302" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R302" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S302" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="T302" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U302" s="10"/>
-      <c r="V302" s="11">
-        <v>9789044650341</v>
-      </c>
-      <c r="W302" s="6">
-        <f>N302+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X302" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="303" spans="1:24">
-      <c r="A303" s="1">
-        <v>32310</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E303" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F303" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G303" s="5">
-        <v>1999</v>
-      </c>
-      <c r="H303" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I303" s="3" t="s">
-        <v>1246</v>
-      </c>
-      <c r="J303" s="5">
-        <v>735</v>
-      </c>
-      <c r="K303" s="3"/>
-      <c r="L303" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M303" s="3" t="s">
-        <v>1248</v>
-      </c>
-      <c r="N303" s="6">
-        <v>12</v>
-      </c>
-      <c r="O303" s="7">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="P303" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q303" s="8">
-        <f t="shared" si="18"/>
-        <v>11</v>
-      </c>
-      <c r="R303" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S303" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="T303" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U303" s="10"/>
-      <c r="V303" s="11">
-        <v>9789029057950</v>
-      </c>
-      <c r="W303" s="6">
-        <f>N303+7.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="X303" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="304" spans="1:24">
-      <c r="A304" s="1">
-        <v>32311</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>1250</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E304" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F304" s="4" t="s">
-        <v>1251</v>
-      </c>
-      <c r="G304" s="5">
-        <v>2023</v>
-      </c>
-      <c r="H304" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I304" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J304" s="5">
-        <v>314</v>
-      </c>
-      <c r="K304" s="3"/>
-      <c r="L304" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M304" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="N304" s="6">
-        <v>14</v>
-      </c>
-      <c r="O304" s="7">
-        <f t="shared" si="20"/>
-        <v>15</v>
-      </c>
-      <c r="P304" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q304" s="8">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="R304" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="S304" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T304" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U304" s="10"/>
-      <c r="V304" s="11"/>
-      <c r="W304" s="6">
-        <v>22</v>
-      </c>
-      <c r="X304" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="305" spans="1:24">
-      <c r="A305" s="1">
-        <v>32312</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D305" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E305" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F305" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="G305" s="5">
-        <v>2022</v>
-      </c>
-      <c r="H305" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I305" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J305" s="5">
-        <v>265</v>
-      </c>
-      <c r="K305" s="3"/>
-      <c r="L305" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M305" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="N305" s="6">
-        <v>24</v>
-      </c>
-      <c r="O305" s="7">
-        <f t="shared" si="20"/>
-        <v>25</v>
-      </c>
-      <c r="P305" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q305" s="8">
-        <f t="shared" si="18"/>
-        <v>20</v>
-      </c>
-      <c r="R305" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="S305" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T305" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U305" s="10"/>
-      <c r="V305" s="11"/>
-      <c r="W305" s="6">
-        <f>N305+7.5</f>
-        <v>31.5</v>
-      </c>
-      <c r="X305" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="306" spans="1:24">
-      <c r="A306" s="1">
-        <v>32313</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D306" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E306" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G306" s="5">
-        <v>2017</v>
-      </c>
-      <c r="H306" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I306" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J306" s="5">
-        <v>327</v>
-      </c>
-      <c r="K306" s="3"/>
-      <c r="L306" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M306" s="3" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N306" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="O306" s="7">
-        <f t="shared" si="20"/>
-        <v>10.5</v>
-      </c>
-      <c r="P306" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q306" s="8">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-      <c r="R306" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S306" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T306" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U306" s="10"/>
-      <c r="V306" s="11">
-        <v>9780141018539</v>
-      </c>
-      <c r="W306" s="6">
-        <f>N306+7.5</f>
-        <v>17</v>
-      </c>
-      <c r="X306" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="307" spans="1:24">
-      <c r="A307" s="1">
-        <v>32314</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F307" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G307" s="5">
-        <v>2012</v>
-      </c>
-      <c r="H307" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I307" s="3" t="s">
-        <v>1260</v>
-      </c>
-      <c r="J307" s="5">
-        <v>448</v>
-      </c>
-      <c r="K307" s="3"/>
-      <c r="L307" s="3" t="s">
-        <v>1261</v>
-      </c>
-      <c r="M307" s="3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="N307" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="O307" s="7">
-        <f t="shared" si="20"/>
-        <v>10.5</v>
-      </c>
-      <c r="P307" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q307" s="8">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-      <c r="R307" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S307" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="T307" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U307" s="10"/>
-      <c r="V307" s="11">
-        <v>9780141040530</v>
-      </c>
-      <c r="W307" s="6">
-        <f>N307+7.5</f>
-        <v>17</v>
-      </c>
-      <c r="X307" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="308" spans="1:24">
-      <c r="A308" s="1">
-        <v>32315</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D308" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E308" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F308" s="4" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H308" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I308" s="3" t="s">
-        <v>1266</v>
-      </c>
-      <c r="J308" s="5">
-        <v>191</v>
-      </c>
-      <c r="K308" s="3"/>
-      <c r="L308" s="3" t="s">
-        <v>1267</v>
-      </c>
-      <c r="M308" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="N308" s="6">
-        <v>6.5</v>
-      </c>
-      <c r="O308" s="7">
-        <f t="shared" si="20"/>
-        <v>7.5</v>
-      </c>
-      <c r="P308" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q308" s="8">
-        <f t="shared" si="18"/>
-        <v>5.5</v>
-      </c>
-      <c r="R308" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S308" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="T308" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U308" s="10"/>
-      <c r="V308" s="11"/>
-      <c r="W308" s="6">
-        <f>N308+7.5</f>
-        <v>14</v>
-      </c>
-      <c r="X308" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="309" spans="1:24">
-      <c r="A309" s="1">
-        <v>32317</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F309" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G309" s="5">
-        <v>1971</v>
-      </c>
-      <c r="H309" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I309" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J309" s="5">
-        <v>317</v>
-      </c>
-      <c r="K309" s="3"/>
-      <c r="L309" s="3" t="s">
-        <v>1271</v>
-      </c>
-      <c r="M309" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N309" s="6">
-        <v>9.5</v>
-      </c>
-      <c r="O309" s="7">
-        <f t="shared" si="20"/>
-        <v>10.5</v>
-      </c>
-      <c r="P309" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q309" s="8">
-        <f t="shared" si="18"/>
-        <v>8.5</v>
-      </c>
-      <c r="R309" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S309" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T309" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U309" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V309" s="11">
-        <v>9780671210748</v>
-      </c>
-      <c r="W309" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="X309" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="310" spans="1:24">
-      <c r="A310" s="1">
-        <v>32318</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F310" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G310" s="5">
-        <v>1972</v>
-      </c>
-      <c r="H310" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I310" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J310" s="5">
-        <v>315</v>
-      </c>
-      <c r="K310" s="3"/>
-      <c r="L310" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="M310" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N310" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O310" s="7">
-        <f t="shared" si="20"/>
-        <v>9.5</v>
-      </c>
-      <c r="P310" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q310" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R310" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S310" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T310" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U310" s="10"/>
-      <c r="V310" s="11"/>
-      <c r="W310" s="6">
-        <f>N310+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X310" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="311" spans="1:24">
-      <c r="A311" s="1">
-        <v>32319</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>1275</v>
-      </c>
-      <c r="D311" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F311" s="4" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G311" s="5">
-        <v>1974</v>
-      </c>
-      <c r="H311" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I311" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J311" s="5">
-        <v>287</v>
-      </c>
-      <c r="K311" s="3"/>
-      <c r="L311" s="3" t="s">
-        <v>1274</v>
-      </c>
-      <c r="M311" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="N311" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O311" s="7">
-        <f t="shared" si="20"/>
-        <v>9.5</v>
-      </c>
-      <c r="P311" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q311" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R311" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S311" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T311" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U311" s="10"/>
-      <c r="V311" s="11"/>
-      <c r="W311" s="6">
-        <f>N311+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X311" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="312" spans="1:24">
-      <c r="A312" s="1">
-        <v>32320</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D312" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F312" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G312" s="5">
-        <v>2017</v>
-      </c>
-      <c r="H312" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I312" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J312" s="5">
-        <v>351</v>
-      </c>
-      <c r="K312" s="3"/>
-      <c r="L312" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M312" s="3" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N312" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O312" s="7">
-        <f t="shared" si="20"/>
-        <v>9.5</v>
-      </c>
-      <c r="P312" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q312" s="8">
-        <f t="shared" si="18"/>
-        <v>7.5</v>
-      </c>
-      <c r="R312" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S312" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T312" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U312" s="10"/>
-      <c r="V312" s="11">
-        <v>9781472924148</v>
-      </c>
-      <c r="W312" s="6">
-        <f>N312+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X312" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="313" spans="1:24">
-      <c r="A313" s="1">
-        <v>32321</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F313" s="4" t="s">
-        <v>1281</v>
-      </c>
-      <c r="G313" s="5">
-        <v>2021</v>
-      </c>
-      <c r="H313" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I313" s="3" t="s">
-        <v>1282</v>
-      </c>
-      <c r="J313" s="5">
-        <v>248</v>
-      </c>
-      <c r="K313" s="3"/>
-      <c r="L313" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M313" s="3" t="s">
-        <v>1283</v>
-      </c>
-      <c r="N313" s="6">
-        <v>10</v>
-      </c>
-      <c r="O313" s="7">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="P313" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q313" s="8">
-        <f t="shared" si="18"/>
-        <v>9</v>
-      </c>
-      <c r="R313" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S313" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="T313" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U313" s="10"/>
-      <c r="V313" s="11">
-        <v>9781419747885</v>
-      </c>
-      <c r="W313" s="6">
-        <v>19</v>
-      </c>
-      <c r="X313" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="314" spans="1:24">
-      <c r="A314" s="1">
-        <v>32322</v>
-      </c>
-      <c r="B314" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F314" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G314" s="5">
-        <v>2000</v>
-      </c>
-      <c r="H314" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I314" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J314" s="5">
-        <v>307</v>
-      </c>
-      <c r="K314" s="3"/>
-      <c r="L314" s="3" t="s">
-        <v>1286</v>
-      </c>
-      <c r="M314" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="N314" s="6">
-        <v>20</v>
-      </c>
-      <c r="O314" s="7">
-        <f t="shared" si="20"/>
-        <v>21</v>
-      </c>
-      <c r="P314" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q314" s="8">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="R314" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S314" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="T314" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U314" s="10"/>
-      <c r="V314" s="11">
-        <v>9780747550723</v>
-      </c>
-      <c r="W314" s="6">
-        <v>28.5</v>
-      </c>
-      <c r="X314" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="315" spans="1:24">
-      <c r="A315" s="1">
-        <v>32323</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>1290</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F315" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G315" s="5">
-        <v>2018</v>
-      </c>
-      <c r="H315" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I315" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="J315" s="5">
-        <v>377</v>
-      </c>
-      <c r="K315" s="3"/>
-      <c r="L315" s="3" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M315" s="3" t="s">
-        <v>1292</v>
-      </c>
-      <c r="N315" s="6">
-        <v>20</v>
-      </c>
-      <c r="O315" s="7">
-        <f t="shared" si="20"/>
-        <v>21</v>
-      </c>
-      <c r="P315" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q315" s="8">
-        <f t="shared" si="18"/>
-        <v>19</v>
-      </c>
-      <c r="R315" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="S315" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="T315" s="9" t="s">
-        <v>1209</v>
-      </c>
-      <c r="U315" s="10"/>
-      <c r="V315" s="11">
-        <v>9781408857441</v>
-      </c>
-      <c r="W315" s="6">
-        <v>28.5</v>
-      </c>
-      <c r="X315" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="316" spans="1:24">
-      <c r="A316" s="1">
-        <v>32324</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E316" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F316" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G316" s="5">
-        <v>2004</v>
-      </c>
-      <c r="H316" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I316" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J316" s="5">
-        <v>241</v>
-      </c>
-      <c r="K316" s="3"/>
-      <c r="L316" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="M316" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="N316" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="O316" s="7">
-        <f t="shared" si="20"/>
-        <v>8.5</v>
-      </c>
-      <c r="P316" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q316" s="8">
-        <f t="shared" si="18"/>
-        <v>6.5</v>
-      </c>
-      <c r="R316" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S316" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T316" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U316" s="10"/>
-      <c r="V316" s="11">
-        <v>9782738115232</v>
-      </c>
-      <c r="W316" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="X316" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="317" spans="1:24">
-      <c r="A317" s="1">
-        <v>32325</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>1297</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F317" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G317" s="5">
-        <v>2020</v>
-      </c>
-      <c r="H317" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I317" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J317" s="5">
-        <v>212</v>
-      </c>
-      <c r="K317" s="3"/>
-      <c r="L317" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="M317" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N317" s="6">
-        <v>6</v>
-      </c>
-      <c r="O317" s="7">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="P317" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q317" s="8">
-        <f t="shared" si="18"/>
-        <v>5</v>
-      </c>
-      <c r="R317" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S317" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T317" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U317" s="10"/>
-      <c r="V317" s="11">
-        <v>9782253100782</v>
-      </c>
-      <c r="W317" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="X317" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="318" spans="1:24">
-      <c r="A318" s="1">
-        <v>32326</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>1298</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>1299</v>
-      </c>
-      <c r="D318" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F318" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G318" s="5">
-        <v>1981</v>
-      </c>
-      <c r="H318" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I318" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="J318" s="5">
-        <v>218</v>
-      </c>
-      <c r="K318" s="3"/>
-      <c r="L318" s="3" t="s">
-        <v>1300</v>
-      </c>
-      <c r="M318" s="3" t="s">
-        <v>1301</v>
-      </c>
-      <c r="N318" s="6">
-        <v>5.5</v>
-      </c>
-      <c r="O318" s="7">
-        <f t="shared" si="20"/>
-        <v>6.5</v>
-      </c>
-      <c r="P318" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q318" s="8">
-        <f t="shared" si="18"/>
-        <v>4.5</v>
-      </c>
-      <c r="R318" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S318" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="T318" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U318" s="10"/>
-      <c r="V318" s="11">
-        <v>9780552100731</v>
-      </c>
-      <c r="W318" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="X318" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="319" spans="1:24">
-      <c r="A319" s="1">
-        <v>32327</v>
-      </c>
-      <c r="B319" s="1" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F319" s="4" t="s">
-        <v>1304</v>
-      </c>
-      <c r="G319" s="5">
-        <v>2016</v>
-      </c>
-      <c r="H319" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I319" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="J319" s="5">
-        <v>279</v>
-      </c>
-      <c r="K319" s="3"/>
-      <c r="L319" s="3" t="s">
-        <v>1305</v>
-      </c>
-      <c r="M319" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N319" s="6">
-        <v>15</v>
-      </c>
-      <c r="O319" s="7">
-        <f t="shared" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="P319" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q319" s="8">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="R319" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S319" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="T319" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U319" s="10"/>
-      <c r="V319" s="11">
-        <v>9781781256237</v>
-      </c>
-      <c r="W319" s="6">
-        <f>N319+7.5</f>
-        <v>22.5</v>
-      </c>
-      <c r="X319" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="320" spans="1:24">
-      <c r="A320" s="1">
-        <v>32328</v>
-      </c>
-      <c r="B320" s="1" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F320" s="4" t="s">
-        <v>1308</v>
-      </c>
-      <c r="G320" s="5">
-        <v>1989</v>
-      </c>
-      <c r="H320" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I320" s="3" t="s">
-        <v>1309</v>
-      </c>
-      <c r="J320" s="5">
-        <v>116</v>
-      </c>
-      <c r="K320" s="3"/>
-      <c r="L320" s="3" t="s">
-        <v>1310</v>
-      </c>
-      <c r="M320" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="N320" s="6">
-        <v>11</v>
-      </c>
-      <c r="O320" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="P320" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q320" s="8">
-        <f t="shared" si="18"/>
-        <v>10</v>
-      </c>
-      <c r="R320" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S320" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="T320" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U320" s="10"/>
-      <c r="V320" s="11">
-        <v>9780941419246</v>
-      </c>
-      <c r="W320" s="6">
-        <v>23.5</v>
-      </c>
-      <c r="X320" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="321" spans="1:24">
-      <c r="A321" s="1">
-        <v>32329</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F321" s="4" t="s">
-        <v>1313</v>
-      </c>
-      <c r="G321" s="5">
-        <v>2012</v>
-      </c>
-      <c r="H321" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I321" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="J321" s="5">
-        <v>230</v>
-      </c>
-      <c r="K321" s="3"/>
-      <c r="L321" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="M321" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="N321" s="6">
-        <v>15</v>
-      </c>
-      <c r="O321" s="7">
-        <f t="shared" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="P321" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q321" s="8">
-        <f t="shared" si="18"/>
-        <v>14</v>
-      </c>
-      <c r="R321" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S321" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T321" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U321" s="10"/>
-      <c r="V321" s="11">
-        <v>9781590308479</v>
-      </c>
-      <c r="W321" s="6">
-        <f>N321+7.5</f>
-        <v>22.5</v>
-      </c>
-      <c r="X321" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="322" spans="1:24">
-      <c r="A322" s="1">
-        <v>32330</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D322" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E322" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F322" s="4" t="s">
-        <v>1318</v>
-      </c>
-      <c r="G322" s="5">
-        <v>2018</v>
-      </c>
-      <c r="H322" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I322" s="3" t="s">
-        <v>1319</v>
-      </c>
-      <c r="J322" s="5">
-        <v>163</v>
-      </c>
-      <c r="K322" s="3"/>
-      <c r="L322" s="3" t="s">
-        <v>1320</v>
-      </c>
-      <c r="M322" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N322" s="6">
-        <v>8.5</v>
-      </c>
-      <c r="O322" s="7">
-        <f t="shared" si="20"/>
-        <v>9.5</v>
-      </c>
-      <c r="P322" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q322" s="8">
-        <f t="shared" ref="Q322:Q337" si="21">(N322-P322)</f>
-        <v>8.5</v>
-      </c>
-      <c r="R322" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S322" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T322" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U322" s="10"/>
-      <c r="V322" s="11">
-        <v>9788823521360</v>
-      </c>
-      <c r="W322" s="6">
-        <f>N322+7.5</f>
-        <v>16</v>
-      </c>
-      <c r="X322" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="323" spans="1:24">
-      <c r="A323" s="1">
-        <v>32331</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D323" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F323" s="4" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G323" s="5">
-        <v>2019</v>
-      </c>
-      <c r="H323" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I323" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="J323" s="5">
-        <v>240</v>
-      </c>
-      <c r="K323" s="3"/>
-      <c r="L323" s="3" t="s">
-        <v>1325</v>
-      </c>
-      <c r="M323" s="3" t="s">
-        <v>1326</v>
-      </c>
-      <c r="N323" s="6">
-        <v>13</v>
-      </c>
-      <c r="O323" s="7">
-        <f t="shared" si="20"/>
-        <v>14</v>
-      </c>
-      <c r="P323" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q323" s="8">
-        <f t="shared" si="21"/>
-        <v>13</v>
-      </c>
-      <c r="R323" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S323" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T323" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U323" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V323" s="11">
-        <v>9788881039302</v>
-      </c>
-      <c r="W323" s="6">
-        <v>19.5</v>
-      </c>
-      <c r="X323" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="324" spans="1:24">
-      <c r="A324" s="1">
-        <v>32332</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F324" s="4" t="s">
-        <v>1330</v>
-      </c>
-      <c r="G324" s="5">
-        <v>1988</v>
-      </c>
-      <c r="H324" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I324" s="3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J324" s="5">
-        <v>145</v>
-      </c>
-      <c r="K324" s="3"/>
-      <c r="L324" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="M324" s="3" t="s">
-        <v>1332</v>
-      </c>
-      <c r="N324" s="6">
-        <v>10</v>
-      </c>
-      <c r="O324" s="7">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="P324" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q324" s="8">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="R324" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S324" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T324" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U324" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="V324" s="11">
-        <v>9788420630922</v>
-      </c>
-      <c r="W324" s="6">
-        <f>N324+7.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="X324" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="325" spans="1:24">
-      <c r="A325" s="1">
-        <v>32333</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>1333</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F325" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G325" s="5">
-        <v>1958</v>
-      </c>
-      <c r="H325" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I325" s="3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="J325" s="5">
-        <v>208</v>
-      </c>
-      <c r="K325" s="3"/>
-      <c r="L325" s="3" t="s">
-        <v>1336</v>
-      </c>
-      <c r="M325" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="N325" s="6">
-        <v>12</v>
-      </c>
-      <c r="O325" s="7">
-        <f t="shared" si="20"/>
-        <v>13</v>
-      </c>
-      <c r="P325" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q325" s="8">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="R325" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S325" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T325" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U325" s="10"/>
-      <c r="V325" s="11"/>
-      <c r="W325" s="6">
-        <f>N325+7.5</f>
-        <v>19.5</v>
-      </c>
-      <c r="X325" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="326" spans="1:24">
-      <c r="A326" s="1">
-        <v>32334</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D326" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F326" s="4" t="s">
-        <v>1339</v>
-      </c>
-      <c r="G326" s="5">
-        <v>2011</v>
-      </c>
-      <c r="H326" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I326" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J326" s="5">
-        <v>284</v>
-      </c>
-      <c r="K326" s="3"/>
-      <c r="L326" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="M326" s="3" t="s">
-        <v>1287</v>
-      </c>
-      <c r="N326" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="O326" s="7">
-        <f t="shared" si="20"/>
-        <v>13.5</v>
-      </c>
-      <c r="P326" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q326" s="8">
-        <f t="shared" si="21"/>
-        <v>12.5</v>
-      </c>
-      <c r="R326" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S326" s="1" t="s">
-        <v>1288</v>
-      </c>
-      <c r="T326" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U326" s="10"/>
-      <c r="V326" s="11">
-        <v>9789022558843</v>
-      </c>
-      <c r="W326" s="6">
-        <v>24</v>
-      </c>
-      <c r="X326" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="327" spans="1:24">
-      <c r="A327" s="1">
-        <v>32335</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E327" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F327" s="4" t="s">
-        <v>1342</v>
-      </c>
-      <c r="G327" s="5">
-        <v>1988</v>
-      </c>
-      <c r="H327" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I327" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J327" s="5">
-        <v>85</v>
-      </c>
-      <c r="K327" s="3"/>
-      <c r="L327" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="M327" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="N327" s="6">
-        <v>10</v>
-      </c>
-      <c r="O327" s="7">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="P327" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q327" s="8">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="R327" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S327" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="T327" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U327" s="10"/>
-      <c r="V327" s="11">
-        <v>9789070116484</v>
-      </c>
-      <c r="W327" s="6">
-        <f>N327+7.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="X327" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="328" spans="1:24">
-      <c r="A328" s="1">
-        <v>32336</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E328" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F328" s="4" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G328" s="5">
-        <v>1996</v>
-      </c>
-      <c r="H328" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I328" s="3" t="s">
-        <v>1324</v>
-      </c>
-      <c r="J328" s="5">
-        <v>269</v>
-      </c>
-      <c r="K328" s="3"/>
-      <c r="L328" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="M328" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="N328" s="6">
-        <v>10</v>
-      </c>
-      <c r="O328" s="7">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="P328" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q328" s="8">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="R328" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S328" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T328" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U328" s="10"/>
-      <c r="V328" s="11">
-        <v>9781860200052</v>
-      </c>
-      <c r="W328" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="X328" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="329" spans="1:24">
-      <c r="A329" s="1">
-        <v>32337</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="D329" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E329" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F329" s="4" t="s">
-        <v>1352</v>
-      </c>
-      <c r="G329" s="5">
-        <v>2002</v>
-      </c>
-      <c r="H329" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I329" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J329" s="5">
-        <v>119</v>
-      </c>
-      <c r="K329" s="3"/>
-      <c r="L329" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="M329" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="N329" s="6">
-        <v>30</v>
-      </c>
-      <c r="O329" s="7">
-        <f t="shared" si="20"/>
-        <v>31</v>
-      </c>
-      <c r="P329" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q329" s="8">
-        <f t="shared" si="21"/>
-        <v>30</v>
-      </c>
-      <c r="R329" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S329" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T329" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U329" s="10"/>
-      <c r="V329" s="11">
-        <v>9789074816311</v>
-      </c>
-      <c r="W329" s="6">
-        <v>40</v>
-      </c>
-      <c r="X329" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="330" spans="1:24">
-      <c r="A330" s="1">
-        <v>32338</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D330" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E330" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F330" s="4" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1958</v>
-      </c>
-      <c r="H330" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I330" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J330" s="5">
-        <v>27</v>
-      </c>
-      <c r="K330" s="3"/>
-      <c r="L330" s="3" t="s">
-        <v>1359</v>
-      </c>
-      <c r="M330" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="N330" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="O330" s="7">
-        <f t="shared" si="20"/>
-        <v>13.5</v>
-      </c>
-      <c r="P330" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q330" s="8">
-        <f t="shared" si="21"/>
-        <v>12.5</v>
-      </c>
-      <c r="R330" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S330" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="T330" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U330" s="10"/>
-      <c r="V330" s="11"/>
-      <c r="W330" s="6">
-        <f>N330+7.5</f>
-        <v>20</v>
-      </c>
-      <c r="X330" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="331" spans="1:24">
-      <c r="A331" s="1">
-        <v>32339</v>
-      </c>
-      <c r="B331" s="1" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F331" s="4" t="s">
-        <v>1364</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1965</v>
-      </c>
-      <c r="H331" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I331" s="3" t="s">
-        <v>1358</v>
-      </c>
-      <c r="J331" s="5">
-        <v>104</v>
-      </c>
-      <c r="K331" s="3"/>
-      <c r="L331" s="3" t="s">
-        <v>1365</v>
-      </c>
-      <c r="M331" s="3" t="s">
-        <v>1360</v>
-      </c>
-      <c r="N331" s="6">
-        <v>10</v>
-      </c>
-      <c r="O331" s="7">
-        <f t="shared" si="20"/>
-        <v>11</v>
-      </c>
-      <c r="P331" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q331" s="8">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="R331" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S331" s="1" t="s">
-        <v>1361</v>
-      </c>
-      <c r="T331" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U331" s="10"/>
-      <c r="V331" s="11"/>
-      <c r="W331" s="6">
-        <f>N331+7.5</f>
-        <v>17.5</v>
-      </c>
-      <c r="X331" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:24">
-      <c r="A332" s="1">
-        <v>32340</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>1367</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F332" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="G332" s="5">
-        <v>2013</v>
-      </c>
-      <c r="H332" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I332" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J332" s="5">
-        <v>229</v>
-      </c>
-      <c r="K332" s="3"/>
-      <c r="L332" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M332" s="3" t="s">
-        <v>1368</v>
-      </c>
-      <c r="N332" s="6">
-        <v>20</v>
-      </c>
-      <c r="O332" s="7">
-        <f t="shared" si="20"/>
-        <v>21</v>
-      </c>
-      <c r="P332" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q332" s="8">
-        <f t="shared" si="21"/>
-        <v>16</v>
-      </c>
-      <c r="R332" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="S332" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T332" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U332" s="10"/>
-      <c r="V332" s="11">
-        <v>9780745641584</v>
-      </c>
-      <c r="W332" s="6">
-        <f>N332+7.5</f>
-        <v>27.5</v>
-      </c>
-      <c r="X332" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="333" spans="1:24">
-      <c r="A333" s="1">
-        <v>32341</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E333" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F333" s="4" t="s">
-        <v>1371</v>
-      </c>
-      <c r="G333" s="5">
-        <v>2024</v>
-      </c>
-      <c r="H333" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I333" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="J333" s="5">
-        <v>127</v>
-      </c>
-      <c r="K333" s="3"/>
-      <c r="L333" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="M333" s="3" t="s">
-        <v>1373</v>
-      </c>
-      <c r="N333" s="6">
-        <v>11</v>
-      </c>
-      <c r="O333" s="7">
-        <f t="shared" si="20"/>
-        <v>12</v>
-      </c>
-      <c r="P333" s="6">
-        <v>4</v>
-      </c>
-      <c r="Q333" s="8">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="R333" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="S333" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T333" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U333" s="10"/>
-      <c r="V333" s="11">
-        <v>9781797224831</v>
-      </c>
-      <c r="W333" s="6">
-        <f>N333+7.5</f>
-        <v>18.5</v>
-      </c>
-      <c r="X333" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="334" spans="1:24">
-      <c r="A334" s="1">
-        <v>32342</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E334" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F334" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1979</v>
-      </c>
-      <c r="H334" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I334" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J334" s="5">
-        <v>273</v>
-      </c>
-      <c r="K334" s="3"/>
-      <c r="L334" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="M334" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N334" s="6">
-        <v>6</v>
-      </c>
-      <c r="O334" s="7">
-        <f t="shared" si="20"/>
-        <v>7</v>
-      </c>
-      <c r="P334" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q334" s="8">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="R334" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S334" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T334" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U334" s="10"/>
-      <c r="V334" s="11">
-        <v>9789027421272</v>
-      </c>
-      <c r="W334" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="X334" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="335" spans="1:24">
-      <c r="A335" s="1">
-        <v>32343</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F335" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1978</v>
-      </c>
-      <c r="H335" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I335" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J335" s="5">
-        <v>157</v>
-      </c>
-      <c r="K335" s="3"/>
-      <c r="L335" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="M335" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N335" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="O335" s="7">
-        <f t="shared" si="20"/>
-        <v>8.5</v>
-      </c>
-      <c r="P335" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q335" s="8">
-        <f t="shared" si="21"/>
-        <v>6.5</v>
-      </c>
-      <c r="R335" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S335" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T335" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U335" s="10"/>
-      <c r="V335" s="11">
-        <v>9789027421258</v>
-      </c>
-      <c r="W335" s="6">
-        <v>16</v>
-      </c>
-      <c r="X335" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="336" spans="1:24">
-      <c r="A336" s="1">
-        <v>32344</v>
-      </c>
-      <c r="B336" s="1" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E336" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F336" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G336" s="5">
-        <v>1980</v>
-      </c>
-      <c r="H336" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I336" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J336" s="5">
-        <v>506</v>
-      </c>
-      <c r="K336" s="3"/>
-      <c r="L336" s="3" t="s">
-        <v>1377</v>
-      </c>
-      <c r="M336" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N336" s="6">
-        <v>7</v>
-      </c>
-      <c r="O336" s="7">
-        <f t="shared" si="20"/>
-        <v>8</v>
-      </c>
-      <c r="P336" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q336" s="8">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="R336" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="S336" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T336" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U336" s="10"/>
-      <c r="V336" s="11">
-        <v>9789027421142</v>
-      </c>
-      <c r="W336" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="X336" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="337" spans="1:24">
-      <c r="A337" s="1">
-        <v>32345</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F337" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G337" s="5">
-        <v>1976</v>
-      </c>
-      <c r="H337" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I337" s="3" t="s">
-        <v>1384</v>
-      </c>
-      <c r="J337" s="5">
-        <v>168</v>
-      </c>
-      <c r="K337" s="3"/>
-      <c r="L337" s="3" t="s">
-        <v>1385</v>
-      </c>
-      <c r="M337" s="3" t="s">
-        <v>1386</v>
-      </c>
-      <c r="N337" s="6">
-        <v>15</v>
-      </c>
-      <c r="O337" s="7">
-        <f t="shared" si="20"/>
-        <v>16</v>
-      </c>
-      <c r="P337" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q337" s="8">
-        <f t="shared" si="21"/>
-        <v>14</v>
-      </c>
-      <c r="R337" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S337" s="1" t="s">
-        <v>1387</v>
-      </c>
-      <c r="T337" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="U337" s="10"/>
-      <c r="V337" s="11">
-        <v>9789027484048</v>
-      </c>
-      <c r="W337" s="6">
-        <v>23.5</v>
-      </c>
-      <c r="X337" s="1" t="s">
         <v>21</v>
       </c>
     </row>
